--- a/design/chitiet/login.xlsx
+++ b/design/chitiet/login.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="127">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Chuỗi chữ</t>
+    <t xml:space="preserve">String </t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -428,10 +428,16 @@
     <t xml:space="preserve">In</t>
   </si>
   <si>
-    <t xml:space="preserve">Textbox</t>
+    <t xml:space="preserve">input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
   </si>
   <si>
     <t xml:space="preserve">Hiển thị ********</t>
@@ -446,7 +452,16 @@
     <t xml:space="preserve">Button</t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng ký</t>
+    <t xml:space="preserve">bạn chưa có tài khoản? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vùng cố định]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mật khẩu </t>
   </si>
   <si>
     <t xml:space="preserve">TextView</t>
@@ -479,34 +494,16 @@
     <t xml:space="preserve">(3) Xử lý đăng kí tài khoản</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Nhân vào “bạn chưa có tài khoản? ”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. chuyển trang đăng ký </t>
+  </si>
+  <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
   </si>
   <si>
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giá trị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">example@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có thể</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mật khẩu *</t>
   </si>
   <si>
     <t xml:space="preserve">1. Nhấn nút login thì thực hiện xử lý.</t>
@@ -594,9 +591,6 @@
   </si>
   <si>
     <t xml:space="preserve">signin_fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -725,17 +719,17 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="9"/>
-      <color rgb="FF660E7A"/>
+      <color rgb="FF008000"/>
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="9"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF660E7A"/>
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1081,9 +1075,51 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1110,48 +1146,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1202,7 +1196,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="225">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1660,7 +1654,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1707,51 +1701,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1763,7 +1729,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1771,6 +1737,58 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1779,46 +1797,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1831,23 +1809,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1855,36 +1821,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1923,7 +1865,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1935,7 +1877,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1947,10 +1889,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1979,7 +1917,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1991,44 +1929,40 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2059,19 +1993,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2083,7 +2017,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="45" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2107,31 +2041,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2151,7 +2081,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2253,9 +2183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2269,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676440" cy="970560"/>
+          <a:ext cx="676080" cy="970200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2290,9 +2220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2302,7 +2232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3324960" y="24307560"/>
-          <a:ext cx="955440" cy="646560"/>
+          <a:ext cx="955080" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2355,15 +2285,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
+      <xdr:colOff>70560</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2372,8 +2302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3791880" y="23726520"/>
-          <a:ext cx="3600" cy="579600"/>
+          <a:off x="3791160" y="23725800"/>
+          <a:ext cx="3240" cy="579240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2418,9 +2348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:colOff>122400</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2430,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2780280" cy="2608920"/>
+          <a:ext cx="2779920" cy="2608560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2474,7 +2404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1189080" cy="427680"/>
+          <a:ext cx="1188720" cy="427320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2532,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2544,7 +2474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995760" cy="398880"/>
+          <a:ext cx="995400" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2706,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179640</xdr:colOff>
+      <xdr:colOff>179280</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2718,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914400" cy="399240"/>
+          <a:ext cx="914040" cy="398880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,9 +2704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2790,7 +2720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676440" cy="970560"/>
+          <a:ext cx="676080" cy="970200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4817520" cy="418320"/>
+          <a:ext cx="4817160" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,20 +2787,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>145080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 1" descr=""/>
+        <xdr:cNvPr id="11" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2879,8 +2809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419840" y="1879560"/>
-          <a:ext cx="5693400" cy="3139560"/>
+          <a:off x="255960" y="1092600"/>
+          <a:ext cx="8537040" cy="3872880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2902,14 +2832,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AT81" activeCellId="0" sqref="AT81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -10799,8 +10729,8 @@
   </sheetPr>
   <dimension ref="A1:BJ1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP142" activeCellId="0" sqref="AP142"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS146" activeCellId="0" sqref="AS146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11784,9 +11714,7 @@
       <c r="L49" s="110"/>
       <c r="M49" s="110"/>
       <c r="N49" s="112"/>
-      <c r="O49" s="110" t="n">
-        <v>32</v>
-      </c>
+      <c r="O49" s="110"/>
       <c r="P49" s="110"/>
       <c r="Q49" s="112"/>
       <c r="R49" s="110" t="s">
@@ -11803,7 +11731,9 @@
       <c r="W49" s="109"/>
       <c r="X49" s="109"/>
       <c r="Y49" s="113"/>
-      <c r="Z49" s="114"/>
+      <c r="Z49" s="114" t="s">
+        <v>73</v>
+      </c>
       <c r="AA49" s="109"/>
       <c r="AB49" s="109"/>
       <c r="AC49" s="109"/>
@@ -11835,23 +11765,21 @@
         <v>2</v>
       </c>
       <c r="D50" s="118" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="119"/>
       <c r="F50" s="119"/>
       <c r="G50" s="120"/>
       <c r="H50" s="120"/>
       <c r="I50" s="121"/>
-      <c r="J50" s="122" t="s">
+      <c r="J50" s="112" t="s">
         <v>69</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
       <c r="M50" s="120"/>
       <c r="N50" s="122"/>
-      <c r="O50" s="120" t="n">
-        <v>32</v>
-      </c>
+      <c r="O50" s="120"/>
       <c r="P50" s="120"/>
       <c r="Q50" s="122"/>
       <c r="R50" s="120" t="s">
@@ -11862,20 +11790,20 @@
         <v>71</v>
       </c>
       <c r="U50" s="117"/>
-      <c r="V50" s="118" t="s">
+      <c r="V50" s="108" t="s">
         <v>72</v>
       </c>
       <c r="W50" s="119"/>
       <c r="X50" s="119"/>
       <c r="Y50" s="123"/>
       <c r="Z50" s="124" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA50" s="119"/>
       <c r="AB50" s="119"/>
       <c r="AC50" s="119"/>
       <c r="AD50" s="118" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE50" s="119"/>
       <c r="AF50" s="119"/>
@@ -11900,686 +11828,758 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="123"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="127"/>
       <c r="T51" s="126"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="119"/>
-      <c r="X51" s="119"/>
-      <c r="Y51" s="123"/>
+      <c r="U51" s="129"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
       <c r="Z51" s="126"/>
-      <c r="AA51" s="119"/>
-      <c r="AB51" s="119"/>
-      <c r="AC51" s="119"/>
-      <c r="AD51" s="118"/>
-      <c r="AE51" s="119"/>
-      <c r="AF51" s="119"/>
-      <c r="AG51" s="119"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="119"/>
-      <c r="AK51" s="119"/>
-      <c r="AL51" s="119"/>
-      <c r="AM51" s="119"/>
-      <c r="AN51" s="119"/>
-      <c r="AO51" s="119"/>
-      <c r="AP51" s="119"/>
-      <c r="AQ51" s="119"/>
-      <c r="AR51" s="119"/>
-      <c r="AS51" s="119"/>
-      <c r="AT51" s="119"/>
-      <c r="AU51" s="119"/>
-      <c r="AV51" s="125"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
+      <c r="AD51" s="127"/>
+      <c r="AE51" s="127"/>
+      <c r="AF51" s="127"/>
+      <c r="AG51" s="127"/>
+      <c r="AH51" s="127"/>
+      <c r="AI51" s="127"/>
+      <c r="AJ51" s="127"/>
+      <c r="AK51" s="127"/>
+      <c r="AL51" s="127"/>
+      <c r="AM51" s="127"/>
+      <c r="AN51" s="127"/>
+      <c r="AO51" s="127"/>
+      <c r="AP51" s="127"/>
+      <c r="AQ51" s="127"/>
+      <c r="AR51" s="127"/>
+      <c r="AS51" s="127"/>
+      <c r="AT51" s="127"/>
+      <c r="AU51" s="127"/>
+      <c r="AV51" s="130"/>
       <c r="AW51" s="20"/>
       <c r="AX51" s="116"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="131"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="136"/>
-      <c r="V52" s="129"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="134"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="130"/>
-      <c r="AL52" s="130"/>
-      <c r="AM52" s="130"/>
-      <c r="AN52" s="130"/>
-      <c r="AO52" s="130"/>
-      <c r="AP52" s="130"/>
-      <c r="AQ52" s="130"/>
-      <c r="AR52" s="130"/>
-      <c r="AS52" s="130"/>
-      <c r="AT52" s="130"/>
-      <c r="AU52" s="130"/>
-      <c r="AV52" s="137"/>
+      <c r="C52" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="131"/>
+      <c r="X52" s="131"/>
+      <c r="Y52" s="131"/>
+      <c r="Z52" s="131"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="131"/>
+      <c r="AF52" s="131"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
       <c r="AW52" s="20"/>
       <c r="AX52" s="116"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
+      <c r="C53" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="133"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
+      <c r="U53" s="133"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="133"/>
+      <c r="X53" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="73"/>
+      <c r="AN53" s="73"/>
+      <c r="AO53" s="73"/>
+      <c r="AP53" s="73"/>
+      <c r="AQ53" s="73"/>
+      <c r="AR53" s="73"/>
+      <c r="AS53" s="73"/>
+      <c r="AT53" s="73"/>
+      <c r="AU53" s="73"/>
+      <c r="AV53" s="73"/>
       <c r="AW53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
-      <c r="C54" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="138"/>
-      <c r="X54" s="138"/>
-      <c r="Y54" s="138"/>
-      <c r="Z54" s="138"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
+      <c r="C54" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="139"/>
+      <c r="X54" s="137"/>
+      <c r="Y54" s="140"/>
+      <c r="Z54" s="140"/>
+      <c r="AA54" s="140"/>
+      <c r="AB54" s="138"/>
+      <c r="AC54" s="138"/>
+      <c r="AD54" s="138"/>
       <c r="AE54" s="138"/>
-      <c r="AF54" s="138"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="19"/>
-      <c r="AQ54" s="19"/>
-      <c r="AR54" s="19"/>
-      <c r="AS54" s="19"/>
-      <c r="AT54" s="19"/>
-      <c r="AU54" s="19"/>
+      <c r="AF54" s="140"/>
+      <c r="AG54" s="140"/>
+      <c r="AH54" s="138"/>
+      <c r="AI54" s="138"/>
+      <c r="AJ54" s="138"/>
+      <c r="AK54" s="138"/>
+      <c r="AL54" s="138"/>
+      <c r="AM54" s="138"/>
+      <c r="AN54" s="138"/>
+      <c r="AO54" s="138"/>
+      <c r="AP54" s="138"/>
+      <c r="AQ54" s="138"/>
+      <c r="AR54" s="138"/>
+      <c r="AS54" s="138"/>
+      <c r="AT54" s="138"/>
+      <c r="AU54" s="138"/>
+      <c r="AV54" s="139"/>
       <c r="AW54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
-      <c r="C55" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" s="140"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="140"/>
-      <c r="R55" s="140"/>
-      <c r="S55" s="140"/>
-      <c r="T55" s="140"/>
-      <c r="U55" s="140"/>
-      <c r="V55" s="140"/>
-      <c r="W55" s="140"/>
-      <c r="X55" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="73"/>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="73"/>
-      <c r="AD55" s="73"/>
-      <c r="AE55" s="73"/>
-      <c r="AF55" s="73"/>
-      <c r="AG55" s="73"/>
-      <c r="AH55" s="73"/>
-      <c r="AI55" s="73"/>
-      <c r="AJ55" s="73"/>
-      <c r="AK55" s="73"/>
-      <c r="AL55" s="73"/>
-      <c r="AM55" s="73"/>
-      <c r="AN55" s="73"/>
-      <c r="AO55" s="73"/>
-      <c r="AP55" s="73"/>
-      <c r="AQ55" s="73"/>
-      <c r="AR55" s="73"/>
-      <c r="AS55" s="73"/>
-      <c r="AT55" s="73"/>
-      <c r="AU55" s="73"/>
-      <c r="AV55" s="73"/>
+      <c r="C55" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="143"/>
+      <c r="K55" s="143"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="O55" s="143"/>
+      <c r="P55" s="143"/>
+      <c r="Q55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="S55" s="143"/>
+      <c r="T55" s="143"/>
+      <c r="U55" s="143"/>
+      <c r="V55" s="143"/>
+      <c r="W55" s="144"/>
+      <c r="X55" s="142"/>
+      <c r="Y55" s="145"/>
+      <c r="Z55" s="145"/>
+      <c r="AA55" s="145"/>
+      <c r="AB55" s="143"/>
+      <c r="AC55" s="143"/>
+      <c r="AD55" s="143"/>
+      <c r="AE55" s="143"/>
+      <c r="AF55" s="145"/>
+      <c r="AG55" s="145"/>
+      <c r="AH55" s="143"/>
+      <c r="AI55" s="143"/>
+      <c r="AJ55" s="143"/>
+      <c r="AK55" s="143"/>
+      <c r="AL55" s="143"/>
+      <c r="AM55" s="143"/>
+      <c r="AN55" s="143"/>
+      <c r="AO55" s="143"/>
+      <c r="AP55" s="143"/>
+      <c r="AQ55" s="143"/>
+      <c r="AR55" s="143"/>
+      <c r="AS55" s="143"/>
+      <c r="AT55" s="143"/>
+      <c r="AU55" s="143"/>
+      <c r="AV55" s="144"/>
       <c r="AW55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="144" t="s">
-        <v>77</v>
-      </c>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
-      <c r="U56" s="145"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="146"/>
-      <c r="X56" s="144"/>
-      <c r="Y56" s="147"/>
-      <c r="Z56" s="147"/>
-      <c r="AA56" s="147"/>
-      <c r="AB56" s="145"/>
-      <c r="AC56" s="145"/>
-      <c r="AD56" s="145"/>
-      <c r="AE56" s="145"/>
-      <c r="AF56" s="147"/>
-      <c r="AG56" s="147"/>
-      <c r="AH56" s="145"/>
-      <c r="AI56" s="145"/>
-      <c r="AJ56" s="145"/>
-      <c r="AK56" s="145"/>
-      <c r="AL56" s="145"/>
-      <c r="AM56" s="145"/>
-      <c r="AN56" s="145"/>
-      <c r="AO56" s="145"/>
-      <c r="AP56" s="145"/>
-      <c r="AQ56" s="145"/>
-      <c r="AR56" s="145"/>
-      <c r="AS56" s="145"/>
-      <c r="AT56" s="145"/>
-      <c r="AU56" s="145"/>
-      <c r="AV56" s="146"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="149"/>
+      <c r="N56" s="150"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="151"/>
+      <c r="Q56" s="151"/>
+      <c r="R56" s="151"/>
+      <c r="S56" s="151"/>
+      <c r="T56" s="151"/>
+      <c r="U56" s="151"/>
+      <c r="V56" s="151"/>
+      <c r="W56" s="152"/>
+      <c r="X56" s="150"/>
+      <c r="Y56" s="153"/>
+      <c r="Z56" s="153"/>
+      <c r="AA56" s="153"/>
+      <c r="AB56" s="151"/>
+      <c r="AC56" s="151"/>
+      <c r="AD56" s="151"/>
+      <c r="AE56" s="151"/>
+      <c r="AF56" s="153"/>
+      <c r="AG56" s="153"/>
+      <c r="AH56" s="151"/>
+      <c r="AI56" s="151"/>
+      <c r="AJ56" s="151"/>
+      <c r="AK56" s="151"/>
+      <c r="AL56" s="151"/>
+      <c r="AM56" s="151"/>
+      <c r="AN56" s="151"/>
+      <c r="AO56" s="151"/>
+      <c r="AP56" s="151"/>
+      <c r="AQ56" s="151"/>
+      <c r="AR56" s="151"/>
+      <c r="AS56" s="151"/>
+      <c r="AT56" s="151"/>
+      <c r="AU56" s="151"/>
+      <c r="AV56" s="154"/>
       <c r="AW56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="148" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="150"/>
-      <c r="W57" s="151"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="152"/>
-      <c r="Z57" s="152"/>
-      <c r="AA57" s="152"/>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="150"/>
-      <c r="AF57" s="152"/>
-      <c r="AG57" s="152"/>
-      <c r="AH57" s="150"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="150"/>
-      <c r="AL57" s="150"/>
-      <c r="AM57" s="150"/>
-      <c r="AN57" s="150"/>
-      <c r="AO57" s="150"/>
-      <c r="AP57" s="150"/>
-      <c r="AQ57" s="150"/>
-      <c r="AR57" s="150"/>
-      <c r="AS57" s="150"/>
-      <c r="AT57" s="150"/>
-      <c r="AU57" s="150"/>
-      <c r="AV57" s="151"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="131"/>
+      <c r="AG57" s="131"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
+      <c r="AL57" s="19"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="19"/>
+      <c r="AO57" s="19"/>
+      <c r="AP57" s="19"/>
+      <c r="AQ57" s="19"/>
+      <c r="AR57" s="19"/>
+      <c r="AS57" s="19"/>
+      <c r="AT57" s="19"/>
+      <c r="AU57" s="19"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="158"/>
-      <c r="P58" s="158"/>
-      <c r="Q58" s="158"/>
-      <c r="R58" s="158"/>
-      <c r="S58" s="158"/>
-      <c r="T58" s="158"/>
-      <c r="U58" s="158"/>
-      <c r="V58" s="158"/>
-      <c r="W58" s="159"/>
-      <c r="X58" s="157"/>
-      <c r="Y58" s="160"/>
-      <c r="Z58" s="160"/>
-      <c r="AA58" s="160"/>
-      <c r="AB58" s="158"/>
-      <c r="AC58" s="158"/>
-      <c r="AD58" s="158"/>
-      <c r="AE58" s="158"/>
-      <c r="AF58" s="160"/>
-      <c r="AG58" s="160"/>
-      <c r="AH58" s="158"/>
-      <c r="AI58" s="158"/>
-      <c r="AJ58" s="158"/>
-      <c r="AK58" s="158"/>
-      <c r="AL58" s="158"/>
-      <c r="AM58" s="158"/>
-      <c r="AN58" s="158"/>
-      <c r="AO58" s="158"/>
-      <c r="AP58" s="158"/>
-      <c r="AQ58" s="158"/>
-      <c r="AR58" s="158"/>
-      <c r="AS58" s="158"/>
-      <c r="AT58" s="158"/>
-      <c r="AU58" s="158"/>
-      <c r="AV58" s="161"/>
+      <c r="C58" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="131"/>
+      <c r="Y58" s="131"/>
+      <c r="Z58" s="131"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="131"/>
+      <c r="AF58" s="131"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="19"/>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="19"/>
+      <c r="AN58" s="19"/>
+      <c r="AO58" s="19"/>
+      <c r="AP58" s="19"/>
+      <c r="AQ58" s="19"/>
+      <c r="AR58" s="19"/>
+      <c r="AS58" s="19"/>
+      <c r="AT58" s="19"/>
+      <c r="AU58" s="19"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="138"/>
-      <c r="Z59" s="138"/>
-      <c r="AA59" s="138"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="138"/>
-      <c r="AG59" s="138"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="19"/>
-      <c r="AQ59" s="19"/>
-      <c r="AR59" s="19"/>
-      <c r="AS59" s="19"/>
-      <c r="AT59" s="19"/>
-      <c r="AU59" s="19"/>
+      <c r="C59" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="133"/>
+      <c r="P59" s="133"/>
+      <c r="Q59" s="133"/>
+      <c r="R59" s="133"/>
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
+      <c r="V59" s="133"/>
+      <c r="W59" s="133"/>
+      <c r="X59" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="73"/>
+      <c r="AC59" s="73"/>
+      <c r="AD59" s="73"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="73"/>
+      <c r="AG59" s="73"/>
+      <c r="AH59" s="73"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="73"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="73"/>
+      <c r="AM59" s="73"/>
+      <c r="AN59" s="73"/>
+      <c r="AO59" s="73"/>
+      <c r="AP59" s="73"/>
+      <c r="AQ59" s="73"/>
+      <c r="AR59" s="73"/>
+      <c r="AS59" s="73"/>
+      <c r="AT59" s="73"/>
+      <c r="AU59" s="73"/>
+      <c r="AV59" s="73"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="138"/>
-      <c r="Z60" s="138"/>
-      <c r="AA60" s="138"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="138"/>
-      <c r="AG60" s="138"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="19"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
+      <c r="C60" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="97"/>
+      <c r="M60" s="136"/>
+      <c r="N60" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="O60" s="138"/>
+      <c r="P60" s="138"/>
+      <c r="Q60" s="138"/>
+      <c r="R60" s="138"/>
+      <c r="S60" s="138"/>
+      <c r="T60" s="138"/>
+      <c r="U60" s="138"/>
+      <c r="V60" s="138"/>
+      <c r="W60" s="139"/>
+      <c r="X60" s="137"/>
+      <c r="Y60" s="140"/>
+      <c r="Z60" s="140"/>
+      <c r="AA60" s="140"/>
+      <c r="AB60" s="138"/>
+      <c r="AC60" s="138"/>
+      <c r="AD60" s="138"/>
+      <c r="AE60" s="138"/>
+      <c r="AF60" s="140"/>
+      <c r="AG60" s="140"/>
+      <c r="AH60" s="138"/>
+      <c r="AI60" s="138"/>
+      <c r="AJ60" s="138"/>
+      <c r="AK60" s="138"/>
+      <c r="AL60" s="138"/>
+      <c r="AM60" s="138"/>
+      <c r="AN60" s="138"/>
+      <c r="AO60" s="138"/>
+      <c r="AP60" s="138"/>
+      <c r="AQ60" s="138"/>
+      <c r="AR60" s="138"/>
+      <c r="AS60" s="138"/>
+      <c r="AT60" s="138"/>
+      <c r="AU60" s="138"/>
+      <c r="AV60" s="139"/>
       <c r="AW60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="138"/>
-      <c r="Z61" s="138"/>
-      <c r="AA61" s="138"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="138"/>
-      <c r="AG61" s="138"/>
-      <c r="AH61" s="19"/>
-      <c r="AI61" s="19"/>
-      <c r="AJ61" s="19"/>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="19"/>
-      <c r="AM61" s="19"/>
-      <c r="AN61" s="19"/>
-      <c r="AO61" s="19"/>
-      <c r="AP61" s="19"/>
-      <c r="AQ61" s="19"/>
-      <c r="AR61" s="19"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="19"/>
-      <c r="AU61" s="19"/>
+      <c r="C61" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="143"/>
+      <c r="K61" s="143"/>
+      <c r="L61" s="143"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="O61" s="143"/>
+      <c r="P61" s="143"/>
+      <c r="Q61" s="143"/>
+      <c r="R61" s="143"/>
+      <c r="S61" s="143"/>
+      <c r="T61" s="143"/>
+      <c r="U61" s="143"/>
+      <c r="V61" s="143"/>
+      <c r="W61" s="144"/>
+      <c r="X61" s="142"/>
+      <c r="Y61" s="145"/>
+      <c r="Z61" s="145"/>
+      <c r="AA61" s="145"/>
+      <c r="AB61" s="143"/>
+      <c r="AC61" s="143"/>
+      <c r="AD61" s="143"/>
+      <c r="AE61" s="143"/>
+      <c r="AF61" s="145"/>
+      <c r="AG61" s="145"/>
+      <c r="AH61" s="143"/>
+      <c r="AI61" s="143"/>
+      <c r="AJ61" s="143"/>
+      <c r="AK61" s="143"/>
+      <c r="AL61" s="143"/>
+      <c r="AM61" s="143"/>
+      <c r="AN61" s="143"/>
+      <c r="AO61" s="143"/>
+      <c r="AP61" s="143"/>
+      <c r="AQ61" s="143"/>
+      <c r="AR61" s="143"/>
+      <c r="AS61" s="143"/>
+      <c r="AT61" s="143"/>
+      <c r="AU61" s="143"/>
+      <c r="AV61" s="144"/>
       <c r="AW61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="138"/>
-      <c r="Z62" s="138"/>
-      <c r="AA62" s="138"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="138"/>
-      <c r="AG62" s="138"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="19"/>
-      <c r="AN62" s="19"/>
-      <c r="AO62" s="19"/>
-      <c r="AP62" s="19"/>
-      <c r="AQ62" s="19"/>
-      <c r="AR62" s="19"/>
-      <c r="AS62" s="19"/>
-      <c r="AT62" s="19"/>
-      <c r="AU62" s="19"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="150"/>
+      <c r="O62" s="151"/>
+      <c r="P62" s="151"/>
+      <c r="Q62" s="151"/>
+      <c r="R62" s="151"/>
+      <c r="S62" s="151"/>
+      <c r="T62" s="151"/>
+      <c r="U62" s="151"/>
+      <c r="V62" s="151"/>
+      <c r="W62" s="152"/>
+      <c r="X62" s="150"/>
+      <c r="Y62" s="153"/>
+      <c r="Z62" s="153"/>
+      <c r="AA62" s="153"/>
+      <c r="AB62" s="151"/>
+      <c r="AC62" s="151"/>
+      <c r="AD62" s="151"/>
+      <c r="AE62" s="151"/>
+      <c r="AF62" s="153"/>
+      <c r="AG62" s="153"/>
+      <c r="AH62" s="151"/>
+      <c r="AI62" s="151"/>
+      <c r="AJ62" s="151"/>
+      <c r="AK62" s="151"/>
+      <c r="AL62" s="151"/>
+      <c r="AM62" s="151"/>
+      <c r="AN62" s="151"/>
+      <c r="AO62" s="151"/>
+      <c r="AP62" s="151"/>
+      <c r="AQ62" s="151"/>
+      <c r="AR62" s="151"/>
+      <c r="AS62" s="151"/>
+      <c r="AT62" s="151"/>
+      <c r="AU62" s="151"/>
+      <c r="AV62" s="154"/>
       <c r="AW62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="162"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="138"/>
-      <c r="Z63" s="138"/>
-      <c r="AA63" s="138"/>
-      <c r="AB63" s="19"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="138"/>
-      <c r="AG63" s="138"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="19"/>
-      <c r="AJ63" s="19"/>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="19"/>
-      <c r="AN63" s="19"/>
-      <c r="AO63" s="19"/>
-      <c r="AP63" s="19"/>
-      <c r="AQ63" s="19"/>
-      <c r="AR63" s="19"/>
-      <c r="AS63" s="19"/>
-      <c r="AT63" s="19"/>
-      <c r="AU63" s="19"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0"/>
+      <c r="X63" s="0"/>
+      <c r="Y63" s="0"/>
+      <c r="Z63" s="0"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0"/>
+      <c r="AE63" s="0"/>
+      <c r="AF63" s="0"/>
+      <c r="AG63" s="0"/>
+      <c r="AH63" s="0"/>
+      <c r="AI63" s="0"/>
+      <c r="AJ63" s="0"/>
+      <c r="AK63" s="0"/>
+      <c r="AL63" s="0"/>
+      <c r="AM63" s="0"/>
+      <c r="AN63" s="0"/>
+      <c r="AO63" s="0"/>
+      <c r="AP63" s="0"/>
+      <c r="AQ63" s="0"/>
+      <c r="AR63" s="0"/>
+      <c r="AS63" s="0"/>
+      <c r="AT63" s="0"/>
+      <c r="AU63" s="0"/>
+      <c r="AV63" s="0"/>
       <c r="AW63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="138"/>
-      <c r="Z64" s="138"/>
-      <c r="AA64" s="138"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="138"/>
-      <c r="AG64" s="138"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="19"/>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="19"/>
-      <c r="AR64" s="19"/>
-      <c r="AS64" s="19"/>
-      <c r="AT64" s="19"/>
-      <c r="AU64" s="19"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
+      <c r="X64" s="0"/>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
+      <c r="AB64" s="0"/>
+      <c r="AC64" s="0"/>
+      <c r="AD64" s="0"/>
+      <c r="AE64" s="0"/>
+      <c r="AF64" s="0"/>
+      <c r="AG64" s="0"/>
+      <c r="AH64" s="0"/>
+      <c r="AI64" s="0"/>
+      <c r="AJ64" s="0"/>
+      <c r="AK64" s="0"/>
+      <c r="AL64" s="0"/>
+      <c r="AM64" s="0"/>
+      <c r="AN64" s="0"/>
+      <c r="AO64" s="0"/>
+      <c r="AP64" s="0"/>
+      <c r="AQ64" s="0"/>
+      <c r="AR64" s="0"/>
+      <c r="AS64" s="0"/>
+      <c r="AT64" s="0"/>
+      <c r="AU64" s="0"/>
+      <c r="AV64" s="0"/>
       <c r="AW64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="162"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -12600,15 +12600,15 @@
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
       <c r="X65" s="19"/>
-      <c r="Y65" s="138"/>
-      <c r="Z65" s="138"/>
-      <c r="AA65" s="138"/>
+      <c r="Y65" s="131"/>
+      <c r="Z65" s="131"/>
+      <c r="AA65" s="131"/>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
-      <c r="AF65" s="138"/>
-      <c r="AG65" s="138"/>
+      <c r="AF65" s="131"/>
+      <c r="AG65" s="131"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
@@ -12628,8 +12628,8 @@
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="162"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -12650,15 +12650,15 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
-      <c r="Y66" s="138"/>
-      <c r="Z66" s="138"/>
-      <c r="AA66" s="138"/>
+      <c r="Y66" s="131"/>
+      <c r="Z66" s="131"/>
+      <c r="AA66" s="131"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
-      <c r="AF66" s="138"/>
-      <c r="AG66" s="138"/>
+      <c r="AF66" s="131"/>
+      <c r="AG66" s="131"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
@@ -12678,8 +12678,8 @@
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="162"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="155"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -12700,15 +12700,15 @@
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
-      <c r="Y67" s="138"/>
-      <c r="Z67" s="138"/>
-      <c r="AA67" s="138"/>
+      <c r="Y67" s="131"/>
+      <c r="Z67" s="131"/>
+      <c r="AA67" s="131"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
-      <c r="AF67" s="138"/>
-      <c r="AG67" s="138"/>
+      <c r="AF67" s="131"/>
+      <c r="AG67" s="131"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
       <c r="AJ67" s="19"/>
@@ -12728,8 +12728,8 @@
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="162"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12750,15 +12750,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="138"/>
-      <c r="Z68" s="138"/>
-      <c r="AA68" s="138"/>
+      <c r="Y68" s="131"/>
+      <c r="Z68" s="131"/>
+      <c r="AA68" s="131"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="138"/>
-      <c r="AG68" s="138"/>
+      <c r="AF68" s="131"/>
+      <c r="AG68" s="131"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12778,8 +12778,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="162"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12800,15 +12800,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="138"/>
-      <c r="Z69" s="138"/>
-      <c r="AA69" s="138"/>
+      <c r="Y69" s="131"/>
+      <c r="Z69" s="131"/>
+      <c r="AA69" s="131"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="138"/>
-      <c r="AG69" s="138"/>
+      <c r="AF69" s="131"/>
+      <c r="AG69" s="131"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12828,8 +12828,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="162"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="155"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -12850,15 +12850,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="138"/>
-      <c r="Z70" s="138"/>
-      <c r="AA70" s="138"/>
+      <c r="Y70" s="131"/>
+      <c r="Z70" s="131"/>
+      <c r="AA70" s="131"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="138"/>
-      <c r="AG70" s="138"/>
+      <c r="AF70" s="131"/>
+      <c r="AG70" s="131"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -12878,8 +12878,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="162"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -12900,15 +12900,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="138"/>
-      <c r="Z71" s="138"/>
-      <c r="AA71" s="138"/>
+      <c r="Y71" s="131"/>
+      <c r="Z71" s="131"/>
+      <c r="AA71" s="131"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="138"/>
-      <c r="AG71" s="138"/>
+      <c r="AF71" s="131"/>
+      <c r="AG71" s="131"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -12928,8 +12928,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="162"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -12950,15 +12950,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="138"/>
-      <c r="Z72" s="138"/>
-      <c r="AA72" s="138"/>
+      <c r="Y72" s="131"/>
+      <c r="Z72" s="131"/>
+      <c r="AA72" s="131"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="138"/>
-      <c r="AG72" s="138"/>
+      <c r="AF72" s="131"/>
+      <c r="AG72" s="131"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -12978,8 +12978,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="162"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -13000,15 +13000,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="138"/>
-      <c r="Z73" s="138"/>
-      <c r="AA73" s="138"/>
+      <c r="Y73" s="131"/>
+      <c r="Z73" s="131"/>
+      <c r="AA73" s="131"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="138"/>
-      <c r="AG73" s="138"/>
+      <c r="AF73" s="131"/>
+      <c r="AG73" s="131"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -13028,8 +13028,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="162"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -13050,15 +13050,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="138"/>
-      <c r="Z74" s="138"/>
-      <c r="AA74" s="138"/>
+      <c r="Y74" s="131"/>
+      <c r="Z74" s="131"/>
+      <c r="AA74" s="131"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="138"/>
-      <c r="AG74" s="138"/>
+      <c r="AF74" s="131"/>
+      <c r="AG74" s="131"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -13078,8 +13078,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="162"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="155"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -13100,15 +13100,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="138"/>
-      <c r="Z75" s="138"/>
-      <c r="AA75" s="138"/>
+      <c r="Y75" s="131"/>
+      <c r="Z75" s="131"/>
+      <c r="AA75" s="131"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="138"/>
-      <c r="AG75" s="138"/>
+      <c r="AF75" s="131"/>
+      <c r="AG75" s="131"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -13128,8 +13128,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="162"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -13150,15 +13150,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="138"/>
-      <c r="Z76" s="138"/>
-      <c r="AA76" s="138"/>
+      <c r="Y76" s="131"/>
+      <c r="Z76" s="131"/>
+      <c r="AA76" s="131"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="138"/>
-      <c r="AG76" s="138"/>
+      <c r="AF76" s="131"/>
+      <c r="AG76" s="131"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -13178,8 +13178,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="162"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="155"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -13200,15 +13200,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="138"/>
-      <c r="Z77" s="138"/>
-      <c r="AA77" s="138"/>
+      <c r="Y77" s="131"/>
+      <c r="Z77" s="131"/>
+      <c r="AA77" s="131"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="138"/>
-      <c r="AG77" s="138"/>
+      <c r="AF77" s="131"/>
+      <c r="AG77" s="131"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13228,8 +13228,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="162"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="155"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13250,15 +13250,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="138"/>
-      <c r="Z78" s="138"/>
-      <c r="AA78" s="138"/>
+      <c r="Y78" s="131"/>
+      <c r="Z78" s="131"/>
+      <c r="AA78" s="131"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="138"/>
-      <c r="AG78" s="138"/>
+      <c r="AF78" s="131"/>
+      <c r="AG78" s="131"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13278,8 +13278,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="162"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="155"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13300,15 +13300,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="138"/>
-      <c r="Z79" s="138"/>
-      <c r="AA79" s="138"/>
+      <c r="Y79" s="131"/>
+      <c r="Z79" s="131"/>
+      <c r="AA79" s="131"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="138"/>
-      <c r="AG79" s="138"/>
+      <c r="AF79" s="131"/>
+      <c r="AG79" s="131"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13328,8 +13328,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="162"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13350,15 +13350,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="138"/>
-      <c r="Z80" s="138"/>
-      <c r="AA80" s="138"/>
+      <c r="Y80" s="131"/>
+      <c r="Z80" s="131"/>
+      <c r="AA80" s="131"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="138"/>
-      <c r="AG80" s="138"/>
+      <c r="AF80" s="131"/>
+      <c r="AG80" s="131"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="AN81" s="6"/>
       <c r="AO81" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
@@ -13575,7 +13575,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -13608,7 +13608,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="C86" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13641,7 +13641,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="D87" s="19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -13703,7 +13703,7 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="C89" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -13736,7 +13736,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="D90" s="19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -13768,7 +13768,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13800,7 +13800,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13862,7 +13862,7 @@
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
       <c r="C94" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -13894,7 +13894,9 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
-      <c r="D95" s="19"/>
+      <c r="D95" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
@@ -13924,7 +13926,9 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
-      <c r="D96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
@@ -14888,7 +14892,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
@@ -14921,7 +14925,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="C126" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14954,7 +14958,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="D127" s="19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -14985,224 +14989,272 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="19"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="19"/>
+      <c r="C128" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="AM128" s="19"/>
       <c r="AN128" s="19"/>
       <c r="AO128" s="19"/>
       <c r="AP128" s="19"/>
-      <c r="AQ128" s="19"/>
       <c r="AR128" s="19"/>
       <c r="AS128" s="19"/>
       <c r="AT128" s="19"/>
       <c r="AU128" s="19"/>
-      <c r="AV128" s="19"/>
       <c r="AW128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV129" s="19"/>
+      <c r="C129" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="K129" s="104"/>
+      <c r="L129" s="104"/>
+      <c r="M129" s="104"/>
+      <c r="N129" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="O129" s="104"/>
+      <c r="P129" s="104"/>
+      <c r="Q129" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R129" s="72"/>
+      <c r="S129" s="72"/>
+      <c r="T129" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="U129" s="72"/>
+      <c r="V129" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="W129" s="73"/>
+      <c r="X129" s="73"/>
+      <c r="Y129" s="73"/>
+      <c r="Z129" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA129" s="105"/>
+      <c r="AB129" s="105"/>
+      <c r="AC129" s="105"/>
+      <c r="AD129" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE129" s="73"/>
+      <c r="AF129" s="73"/>
+      <c r="AG129" s="73"/>
+      <c r="AH129" s="73"/>
+      <c r="AI129" s="73"/>
+      <c r="AJ129" s="73"/>
+      <c r="AK129" s="73"/>
+      <c r="AL129" s="73"/>
+      <c r="AM129" s="73"/>
+      <c r="AN129" s="73"/>
+      <c r="AO129" s="73"/>
+      <c r="AP129" s="73"/>
+      <c r="AQ129" s="73"/>
+      <c r="AR129" s="73"/>
+      <c r="AS129" s="73"/>
+      <c r="AT129" s="73"/>
+      <c r="AU129" s="73"/>
+      <c r="AV129" s="73"/>
       <c r="AW129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="F130" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="G130" s="139"/>
-      <c r="H130" s="139"/>
-      <c r="I130" s="139"/>
-      <c r="J130" s="139"/>
-      <c r="K130" s="139"/>
-      <c r="L130" s="139"/>
-      <c r="M130" s="139"/>
-      <c r="N130" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="O130" s="163"/>
-      <c r="P130" s="163"/>
-      <c r="Q130" s="163"/>
-      <c r="R130" s="163"/>
-      <c r="S130" s="163"/>
-      <c r="T130" s="163"/>
-      <c r="U130" s="163"/>
-      <c r="V130" s="163"/>
-      <c r="W130" s="163"/>
-      <c r="X130" s="163"/>
-      <c r="Y130" s="163"/>
-      <c r="Z130" s="163"/>
-      <c r="AA130" s="163"/>
-      <c r="AB130" s="163"/>
-      <c r="AC130" s="163"/>
-      <c r="AD130" s="164" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE130" s="164"/>
-      <c r="AF130" s="164"/>
-      <c r="AG130" s="164"/>
-      <c r="AH130" s="164"/>
-      <c r="AI130" s="164"/>
-      <c r="AJ130" s="164"/>
-      <c r="AK130" s="164"/>
-      <c r="AL130" s="164" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM130" s="164"/>
-      <c r="AN130" s="164"/>
-      <c r="AO130" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP130" s="139"/>
-      <c r="AQ130" s="139"/>
-      <c r="AR130" s="139"/>
-      <c r="AS130" s="139"/>
-      <c r="AT130" s="139"/>
-      <c r="AU130" s="139"/>
-      <c r="AV130" s="19"/>
+      <c r="C130" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="109"/>
+      <c r="F130" s="109"/>
+      <c r="G130" s="110"/>
+      <c r="H130" s="110"/>
+      <c r="I130" s="111"/>
+      <c r="J130" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="K130" s="110"/>
+      <c r="L130" s="110"/>
+      <c r="M130" s="110"/>
+      <c r="N130" s="112"/>
+      <c r="O130" s="110"/>
+      <c r="P130" s="110"/>
+      <c r="Q130" s="112"/>
+      <c r="R130" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="S130" s="113"/>
+      <c r="T130" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="U130" s="107"/>
+      <c r="V130" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="W130" s="109"/>
+      <c r="X130" s="109"/>
+      <c r="Y130" s="113"/>
+      <c r="Z130" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA130" s="109"/>
+      <c r="AB130" s="109"/>
+      <c r="AC130" s="109"/>
+      <c r="AD130" s="108"/>
+      <c r="AE130" s="109"/>
+      <c r="AF130" s="109"/>
+      <c r="AG130" s="109"/>
+      <c r="AH130" s="109"/>
+      <c r="AI130" s="109"/>
+      <c r="AJ130" s="109"/>
+      <c r="AK130" s="109"/>
+      <c r="AL130" s="109"/>
+      <c r="AM130" s="109"/>
+      <c r="AN130" s="109"/>
+      <c r="AO130" s="109"/>
+      <c r="AP130" s="109"/>
+      <c r="AQ130" s="109"/>
+      <c r="AR130" s="109"/>
+      <c r="AS130" s="109"/>
+      <c r="AT130" s="109"/>
+      <c r="AU130" s="109"/>
+      <c r="AV130" s="115"/>
       <c r="AW130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="165" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="G131" s="145"/>
-      <c r="H131" s="145"/>
-      <c r="I131" s="145"/>
-      <c r="J131" s="145"/>
-      <c r="K131" s="145"/>
-      <c r="L131" s="145"/>
-      <c r="M131" s="146"/>
-      <c r="N131" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="O131" s="145"/>
-      <c r="P131" s="145"/>
-      <c r="Q131" s="145"/>
-      <c r="R131" s="145"/>
-      <c r="S131" s="145"/>
-      <c r="T131" s="145"/>
-      <c r="U131" s="145"/>
-      <c r="V131" s="145"/>
-      <c r="W131" s="145"/>
-      <c r="X131" s="145"/>
-      <c r="Y131" s="145"/>
-      <c r="Z131" s="145"/>
-      <c r="AA131" s="145"/>
-      <c r="AB131" s="145"/>
-      <c r="AC131" s="145"/>
-      <c r="AD131" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE131" s="145"/>
-      <c r="AF131" s="145"/>
-      <c r="AG131" s="145"/>
-      <c r="AH131" s="145"/>
-      <c r="AI131" s="145"/>
-      <c r="AJ131" s="145"/>
-      <c r="AK131" s="145"/>
-      <c r="AL131" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM131" s="145"/>
-      <c r="AN131" s="166"/>
-      <c r="AO131" s="167"/>
-      <c r="AP131" s="145"/>
-      <c r="AQ131" s="145"/>
-      <c r="AR131" s="145"/>
-      <c r="AS131" s="145"/>
-      <c r="AT131" s="145"/>
-      <c r="AU131" s="143"/>
-      <c r="AV131" s="19"/>
+      <c r="C131" s="117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="119"/>
+      <c r="F131" s="119"/>
+      <c r="G131" s="120"/>
+      <c r="H131" s="120"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="K131" s="120"/>
+      <c r="L131" s="120"/>
+      <c r="M131" s="120"/>
+      <c r="N131" s="122"/>
+      <c r="O131" s="120"/>
+      <c r="P131" s="120"/>
+      <c r="Q131" s="122"/>
+      <c r="R131" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="S131" s="123"/>
+      <c r="T131" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="U131" s="117"/>
+      <c r="V131" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="W131" s="119"/>
+      <c r="X131" s="119"/>
+      <c r="Y131" s="123"/>
+      <c r="Z131" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA131" s="119"/>
+      <c r="AB131" s="119"/>
+      <c r="AC131" s="119"/>
+      <c r="AD131" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE131" s="119"/>
+      <c r="AF131" s="119"/>
+      <c r="AG131" s="119"/>
+      <c r="AH131" s="119"/>
+      <c r="AI131" s="119"/>
+      <c r="AJ131" s="119"/>
+      <c r="AK131" s="119"/>
+      <c r="AL131" s="119"/>
+      <c r="AM131" s="119"/>
+      <c r="AN131" s="119"/>
+      <c r="AO131" s="119"/>
+      <c r="AP131" s="119"/>
+      <c r="AQ131" s="119"/>
+      <c r="AR131" s="119"/>
+      <c r="AS131" s="119"/>
+      <c r="AT131" s="119"/>
+      <c r="AU131" s="119"/>
+      <c r="AV131" s="125"/>
       <c r="AW131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="168" t="n">
-        <v>2</v>
-      </c>
-      <c r="F132" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="G132" s="158"/>
-      <c r="H132" s="158"/>
-      <c r="I132" s="158"/>
-      <c r="J132" s="158"/>
-      <c r="K132" s="158"/>
-      <c r="L132" s="158"/>
-      <c r="M132" s="159"/>
-      <c r="N132" s="158" t="s">
-        <v>98</v>
-      </c>
-      <c r="O132" s="158"/>
-      <c r="P132" s="158"/>
-      <c r="Q132" s="158"/>
-      <c r="R132" s="158"/>
-      <c r="S132" s="158"/>
-      <c r="T132" s="158"/>
-      <c r="U132" s="158"/>
-      <c r="V132" s="158"/>
-      <c r="W132" s="158"/>
-      <c r="X132" s="158"/>
-      <c r="Y132" s="158"/>
-      <c r="Z132" s="158"/>
-      <c r="AA132" s="158"/>
-      <c r="AB132" s="158"/>
-      <c r="AC132" s="158"/>
-      <c r="AD132" s="157" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE132" s="169"/>
-      <c r="AF132" s="158"/>
-      <c r="AG132" s="158"/>
-      <c r="AH132" s="158"/>
-      <c r="AI132" s="158"/>
-      <c r="AJ132" s="158"/>
-      <c r="AK132" s="158"/>
-      <c r="AL132" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM132" s="158"/>
-      <c r="AN132" s="159"/>
-      <c r="AO132" s="158"/>
-      <c r="AP132" s="158"/>
-      <c r="AQ132" s="158"/>
-      <c r="AR132" s="158"/>
-      <c r="AS132" s="158"/>
-      <c r="AT132" s="158"/>
-      <c r="AU132" s="159"/>
-      <c r="AV132" s="19"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="127"/>
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="128"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="128"/>
+      <c r="K132" s="128"/>
+      <c r="L132" s="128"/>
+      <c r="M132" s="128"/>
+      <c r="N132" s="128"/>
+      <c r="O132" s="128"/>
+      <c r="P132" s="128"/>
+      <c r="Q132" s="128"/>
+      <c r="R132" s="128"/>
+      <c r="S132" s="127"/>
+      <c r="T132" s="126"/>
+      <c r="U132" s="129"/>
+      <c r="V132" s="127"/>
+      <c r="W132" s="127"/>
+      <c r="X132" s="127"/>
+      <c r="Y132" s="127"/>
+      <c r="Z132" s="126"/>
+      <c r="AA132" s="127"/>
+      <c r="AB132" s="127"/>
+      <c r="AC132" s="127"/>
+      <c r="AD132" s="127"/>
+      <c r="AE132" s="127"/>
+      <c r="AF132" s="127"/>
+      <c r="AG132" s="127"/>
+      <c r="AH132" s="127"/>
+      <c r="AI132" s="127"/>
+      <c r="AJ132" s="127"/>
+      <c r="AK132" s="127"/>
+      <c r="AL132" s="127"/>
+      <c r="AM132" s="127"/>
+      <c r="AN132" s="127"/>
+      <c r="AO132" s="127"/>
+      <c r="AP132" s="127"/>
+      <c r="AQ132" s="127"/>
+      <c r="AR132" s="127"/>
+      <c r="AS132" s="127"/>
+      <c r="AT132" s="127"/>
+      <c r="AU132" s="127"/>
+      <c r="AV132" s="130"/>
       <c r="AW132" s="20"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
+      <c r="C133" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
@@ -15219,6 +15271,25 @@
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
       <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="131"/>
+      <c r="X133" s="131"/>
+      <c r="Y133" s="131"/>
+      <c r="Z133" s="131"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="131"/>
+      <c r="AF133" s="131"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
       <c r="AM133" s="19"/>
       <c r="AN133" s="19"/>
       <c r="AO133" s="19"/>
@@ -15228,200 +15299,233 @@
       <c r="AS133" s="19"/>
       <c r="AT133" s="19"/>
       <c r="AU133" s="19"/>
-      <c r="AV133" s="19"/>
       <c r="AW133" s="20"/>
     </row>
-    <row r="134" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV134" s="19"/>
+      <c r="C134" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="72"/>
+      <c r="N134" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="O134" s="133"/>
+      <c r="P134" s="133"/>
+      <c r="Q134" s="133"/>
+      <c r="R134" s="133"/>
+      <c r="S134" s="133"/>
+      <c r="T134" s="133"/>
+      <c r="U134" s="133"/>
+      <c r="V134" s="133"/>
+      <c r="W134" s="133"/>
+      <c r="X134" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y134" s="73"/>
+      <c r="Z134" s="73"/>
+      <c r="AA134" s="73"/>
+      <c r="AB134" s="73"/>
+      <c r="AC134" s="73"/>
+      <c r="AD134" s="73"/>
+      <c r="AE134" s="73"/>
+      <c r="AF134" s="73"/>
+      <c r="AG134" s="73"/>
+      <c r="AH134" s="73"/>
+      <c r="AI134" s="73"/>
+      <c r="AJ134" s="73"/>
+      <c r="AK134" s="73"/>
+      <c r="AL134" s="73"/>
+      <c r="AM134" s="73"/>
+      <c r="AN134" s="73"/>
+      <c r="AO134" s="73"/>
+      <c r="AP134" s="73"/>
+      <c r="AQ134" s="73"/>
+      <c r="AR134" s="73"/>
+      <c r="AS134" s="73"/>
+      <c r="AT134" s="73"/>
+      <c r="AU134" s="73"/>
+      <c r="AV134" s="73"/>
       <c r="AW134" s="20"/>
-      <c r="AX134" s="99"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="F135" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="G135" s="139"/>
-      <c r="H135" s="139"/>
-      <c r="I135" s="139"/>
-      <c r="J135" s="139"/>
-      <c r="K135" s="139"/>
-      <c r="L135" s="139"/>
-      <c r="M135" s="139"/>
-      <c r="N135" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="O135" s="163"/>
-      <c r="P135" s="163"/>
-      <c r="Q135" s="163"/>
-      <c r="R135" s="163"/>
-      <c r="S135" s="163"/>
-      <c r="T135" s="163"/>
-      <c r="U135" s="163"/>
-      <c r="V135" s="163"/>
-      <c r="W135" s="163"/>
-      <c r="X135" s="163"/>
-      <c r="Y135" s="163"/>
-      <c r="Z135" s="163"/>
-      <c r="AA135" s="163"/>
-      <c r="AB135" s="163"/>
-      <c r="AC135" s="163"/>
-      <c r="AD135" s="164" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE135" s="164"/>
-      <c r="AF135" s="164"/>
-      <c r="AG135" s="164"/>
-      <c r="AH135" s="164"/>
-      <c r="AI135" s="164"/>
-      <c r="AJ135" s="164"/>
-      <c r="AK135" s="164"/>
-      <c r="AL135" s="164" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM135" s="164"/>
-      <c r="AN135" s="164"/>
-      <c r="AO135" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP135" s="139"/>
-      <c r="AQ135" s="139"/>
-      <c r="AR135" s="139"/>
-      <c r="AS135" s="139"/>
-      <c r="AT135" s="139"/>
-      <c r="AU135" s="139"/>
-      <c r="AV135" s="19"/>
+      <c r="C135" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="97"/>
+      <c r="F135" s="97"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="97"/>
+      <c r="J135" s="97"/>
+      <c r="K135" s="97"/>
+      <c r="L135" s="97"/>
+      <c r="M135" s="136"/>
+      <c r="N135" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="O135" s="138"/>
+      <c r="P135" s="138"/>
+      <c r="Q135" s="138"/>
+      <c r="R135" s="138"/>
+      <c r="S135" s="138"/>
+      <c r="T135" s="138"/>
+      <c r="U135" s="138"/>
+      <c r="V135" s="138"/>
+      <c r="W135" s="139"/>
+      <c r="X135" s="137"/>
+      <c r="Y135" s="140"/>
+      <c r="Z135" s="140"/>
+      <c r="AA135" s="140"/>
+      <c r="AB135" s="138"/>
+      <c r="AC135" s="138"/>
+      <c r="AD135" s="138"/>
+      <c r="AE135" s="138"/>
+      <c r="AF135" s="140"/>
+      <c r="AG135" s="140"/>
+      <c r="AH135" s="138"/>
+      <c r="AI135" s="138"/>
+      <c r="AJ135" s="138"/>
+      <c r="AK135" s="138"/>
+      <c r="AL135" s="138"/>
+      <c r="AM135" s="138"/>
+      <c r="AN135" s="138"/>
+      <c r="AO135" s="138"/>
+      <c r="AP135" s="138"/>
+      <c r="AQ135" s="138"/>
+      <c r="AR135" s="138"/>
+      <c r="AS135" s="138"/>
+      <c r="AT135" s="138"/>
+      <c r="AU135" s="138"/>
+      <c r="AV135" s="139"/>
       <c r="AW135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" s="145" t="s">
-        <v>76</v>
-      </c>
-      <c r="G136" s="145"/>
-      <c r="H136" s="145"/>
-      <c r="I136" s="145"/>
-      <c r="J136" s="145"/>
-      <c r="K136" s="145"/>
-      <c r="L136" s="145"/>
-      <c r="M136" s="145"/>
-      <c r="N136" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="O136" s="145"/>
-      <c r="P136" s="145"/>
-      <c r="Q136" s="145"/>
-      <c r="R136" s="145"/>
-      <c r="S136" s="145"/>
-      <c r="T136" s="145"/>
-      <c r="U136" s="145"/>
-      <c r="V136" s="145"/>
-      <c r="W136" s="145"/>
-      <c r="X136" s="145"/>
+      <c r="C136" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E136" s="143"/>
+      <c r="F136" s="143"/>
+      <c r="G136" s="143"/>
+      <c r="H136" s="143"/>
+      <c r="I136" s="143"/>
+      <c r="J136" s="143"/>
+      <c r="K136" s="143"/>
+      <c r="L136" s="143"/>
+      <c r="M136" s="144"/>
+      <c r="N136" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="O136" s="143"/>
+      <c r="P136" s="143"/>
+      <c r="Q136" s="143"/>
+      <c r="R136" s="143"/>
+      <c r="S136" s="143"/>
+      <c r="T136" s="143"/>
+      <c r="U136" s="143"/>
+      <c r="V136" s="143"/>
+      <c r="W136" s="144"/>
+      <c r="X136" s="142"/>
       <c r="Y136" s="145"/>
       <c r="Z136" s="145"/>
       <c r="AA136" s="145"/>
-      <c r="AB136" s="145"/>
-      <c r="AC136" s="146"/>
-      <c r="AD136" s="145"/>
-      <c r="AE136" s="145"/>
+      <c r="AB136" s="143"/>
+      <c r="AC136" s="143"/>
+      <c r="AD136" s="143"/>
+      <c r="AE136" s="143"/>
       <c r="AF136" s="145"/>
       <c r="AG136" s="145"/>
-      <c r="AH136" s="145"/>
-      <c r="AI136" s="145"/>
-      <c r="AJ136" s="145"/>
-      <c r="AK136" s="145"/>
-      <c r="AL136" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM136" s="145"/>
-      <c r="AN136" s="146"/>
-      <c r="AO136" s="145"/>
-      <c r="AP136" s="145"/>
-      <c r="AQ136" s="145"/>
-      <c r="AR136" s="145"/>
-      <c r="AS136" s="145"/>
-      <c r="AT136" s="145"/>
-      <c r="AU136" s="146"/>
-      <c r="AV136" s="19"/>
+      <c r="AH136" s="143"/>
+      <c r="AI136" s="143"/>
+      <c r="AJ136" s="143"/>
+      <c r="AK136" s="143"/>
+      <c r="AL136" s="143"/>
+      <c r="AM136" s="143"/>
+      <c r="AN136" s="143"/>
+      <c r="AO136" s="143"/>
+      <c r="AP136" s="143"/>
+      <c r="AQ136" s="143"/>
+      <c r="AR136" s="143"/>
+      <c r="AS136" s="143"/>
+      <c r="AT136" s="143"/>
+      <c r="AU136" s="143"/>
+      <c r="AV136" s="144"/>
       <c r="AW136" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="153" t="n">
-        <v>2</v>
-      </c>
-      <c r="F137" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="G137" s="158"/>
-      <c r="H137" s="158"/>
-      <c r="I137" s="158"/>
-      <c r="J137" s="158"/>
-      <c r="K137" s="158"/>
-      <c r="L137" s="158"/>
-      <c r="M137" s="158"/>
-      <c r="N137" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="O137" s="158"/>
-      <c r="P137" s="158"/>
-      <c r="Q137" s="158"/>
-      <c r="R137" s="158"/>
-      <c r="S137" s="158"/>
-      <c r="T137" s="158"/>
-      <c r="U137" s="158"/>
-      <c r="V137" s="158"/>
-      <c r="W137" s="158"/>
-      <c r="X137" s="158"/>
-      <c r="Y137" s="158"/>
-      <c r="Z137" s="158"/>
-      <c r="AA137" s="158"/>
-      <c r="AB137" s="158"/>
-      <c r="AC137" s="159"/>
-      <c r="AD137" s="158"/>
-      <c r="AE137" s="170"/>
-      <c r="AF137" s="158"/>
-      <c r="AG137" s="158"/>
-      <c r="AH137" s="158"/>
-      <c r="AI137" s="158"/>
-      <c r="AJ137" s="158"/>
-      <c r="AK137" s="158"/>
-      <c r="AL137" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM137" s="158"/>
-      <c r="AN137" s="159"/>
-      <c r="AO137" s="158"/>
-      <c r="AP137" s="158"/>
-      <c r="AQ137" s="158"/>
-      <c r="AR137" s="158"/>
-      <c r="AS137" s="158"/>
-      <c r="AT137" s="158"/>
-      <c r="AU137" s="159"/>
-      <c r="AV137" s="19"/>
+      <c r="C137" s="146"/>
+      <c r="D137" s="147"/>
+      <c r="E137" s="148"/>
+      <c r="F137" s="148"/>
+      <c r="G137" s="148"/>
+      <c r="H137" s="148"/>
+      <c r="I137" s="148"/>
+      <c r="J137" s="148"/>
+      <c r="K137" s="148"/>
+      <c r="L137" s="148"/>
+      <c r="M137" s="149"/>
+      <c r="N137" s="150"/>
+      <c r="O137" s="151"/>
+      <c r="P137" s="151"/>
+      <c r="Q137" s="151"/>
+      <c r="R137" s="151"/>
+      <c r="S137" s="151"/>
+      <c r="T137" s="151"/>
+      <c r="U137" s="151"/>
+      <c r="V137" s="151"/>
+      <c r="W137" s="152"/>
+      <c r="X137" s="150"/>
+      <c r="Y137" s="153"/>
+      <c r="Z137" s="153"/>
+      <c r="AA137" s="153"/>
+      <c r="AB137" s="151"/>
+      <c r="AC137" s="151"/>
+      <c r="AD137" s="151"/>
+      <c r="AE137" s="151"/>
+      <c r="AF137" s="153"/>
+      <c r="AG137" s="153"/>
+      <c r="AH137" s="151"/>
+      <c r="AI137" s="151"/>
+      <c r="AJ137" s="151"/>
+      <c r="AK137" s="151"/>
+      <c r="AL137" s="151"/>
+      <c r="AM137" s="151"/>
+      <c r="AN137" s="151"/>
+      <c r="AO137" s="151"/>
+      <c r="AP137" s="151"/>
+      <c r="AQ137" s="151"/>
+      <c r="AR137" s="151"/>
+      <c r="AS137" s="151"/>
+      <c r="AT137" s="151"/>
+      <c r="AU137" s="151"/>
+      <c r="AV137" s="154"/>
       <c r="AW137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="138"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="155"/>
+      <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
@@ -15441,15 +15545,15 @@
       <c r="V138" s="19"/>
       <c r="W138" s="19"/>
       <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="19"/>
-      <c r="AA138" s="19"/>
+      <c r="Y138" s="131"/>
+      <c r="Z138" s="131"/>
+      <c r="AA138" s="131"/>
       <c r="AB138" s="19"/>
       <c r="AC138" s="19"/>
       <c r="AD138" s="19"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="19"/>
-      <c r="AG138" s="19"/>
+      <c r="AE138" s="19"/>
+      <c r="AF138" s="131"/>
+      <c r="AG138" s="131"/>
       <c r="AH138" s="19"/>
       <c r="AI138" s="19"/>
       <c r="AJ138" s="19"/>
@@ -15464,13 +15568,15 @@
       <c r="AS138" s="19"/>
       <c r="AT138" s="19"/>
       <c r="AU138" s="19"/>
-      <c r="AV138" s="19"/>
       <c r="AW138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
+      <c r="C139" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="D139" s="19"/>
-      <c r="E139" s="138"/>
+      <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
@@ -15488,16 +15594,16 @@
       <c r="T139" s="19"/>
       <c r="U139" s="19"/>
       <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
-      <c r="Z139" s="19"/>
+      <c r="W139" s="131"/>
+      <c r="X139" s="131"/>
+      <c r="Y139" s="131"/>
+      <c r="Z139" s="131"/>
       <c r="AA139" s="19"/>
       <c r="AB139" s="19"/>
       <c r="AC139" s="19"/>
       <c r="AD139" s="19"/>
-      <c r="AE139" s="1"/>
-      <c r="AF139" s="19"/>
+      <c r="AE139" s="131"/>
+      <c r="AF139" s="131"/>
       <c r="AG139" s="19"/>
       <c r="AH139" s="19"/>
       <c r="AI139" s="19"/>
@@ -15513,814 +15619,780 @@
       <c r="AS139" s="19"/>
       <c r="AT139" s="19"/>
       <c r="AU139" s="19"/>
-      <c r="AV139" s="19"/>
       <c r="AW139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="C140" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D140" s="19"/>
-      <c r="E140" s="138"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="24"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="24"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="24"/>
-      <c r="AB140" s="24"/>
-      <c r="AC140" s="24"/>
-      <c r="AD140" s="24"/>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="24"/>
-      <c r="AH140" s="24"/>
-      <c r="AI140" s="24"/>
-      <c r="AJ140" s="24"/>
-      <c r="AK140" s="24"/>
-      <c r="AL140" s="24"/>
-      <c r="AM140" s="24"/>
-      <c r="AN140" s="24"/>
-      <c r="AO140" s="24"/>
-      <c r="AP140" s="24"/>
-      <c r="AQ140" s="24"/>
-      <c r="AR140" s="24"/>
-      <c r="AS140" s="24"/>
-      <c r="AT140" s="24"/>
-      <c r="AU140" s="24"/>
-      <c r="AV140" s="19"/>
+      <c r="C140" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
+      <c r="N140" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="O140" s="133"/>
+      <c r="P140" s="133"/>
+      <c r="Q140" s="133"/>
+      <c r="R140" s="133"/>
+      <c r="S140" s="133"/>
+      <c r="T140" s="133"/>
+      <c r="U140" s="133"/>
+      <c r="V140" s="133"/>
+      <c r="W140" s="133"/>
+      <c r="X140" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y140" s="73"/>
+      <c r="Z140" s="73"/>
+      <c r="AA140" s="73"/>
+      <c r="AB140" s="73"/>
+      <c r="AC140" s="73"/>
+      <c r="AD140" s="73"/>
+      <c r="AE140" s="73"/>
+      <c r="AF140" s="73"/>
+      <c r="AG140" s="73"/>
+      <c r="AH140" s="73"/>
+      <c r="AI140" s="73"/>
+      <c r="AJ140" s="73"/>
+      <c r="AK140" s="73"/>
+      <c r="AL140" s="73"/>
+      <c r="AM140" s="73"/>
+      <c r="AN140" s="73"/>
+      <c r="AO140" s="73"/>
+      <c r="AP140" s="73"/>
+      <c r="AQ140" s="73"/>
+      <c r="AR140" s="73"/>
+      <c r="AS140" s="73"/>
+      <c r="AT140" s="73"/>
+      <c r="AU140" s="73"/>
+      <c r="AV140" s="73"/>
       <c r="AW140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="D141" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E141" s="138"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="19"/>
-      <c r="Z141" s="19"/>
-      <c r="AA141" s="19"/>
-      <c r="AB141" s="19"/>
-      <c r="AC141" s="19"/>
-      <c r="AD141" s="19"/>
-      <c r="AE141" s="1"/>
-      <c r="AF141" s="19"/>
-      <c r="AG141" s="19"/>
-      <c r="AH141" s="19"/>
-      <c r="AI141" s="19"/>
-      <c r="AJ141" s="19"/>
-      <c r="AK141" s="19"/>
-      <c r="AL141" s="19"/>
-      <c r="AM141" s="19"/>
-      <c r="AN141" s="19"/>
-      <c r="AO141" s="19"/>
-      <c r="AP141" s="19"/>
-      <c r="AQ141" s="19"/>
-      <c r="AR141" s="19"/>
-      <c r="AS141" s="19"/>
-      <c r="AT141" s="19"/>
-      <c r="AU141" s="19"/>
-      <c r="AV141" s="19"/>
+      <c r="C141" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="97"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="136"/>
+      <c r="N141" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="O141" s="138"/>
+      <c r="P141" s="138"/>
+      <c r="Q141" s="138"/>
+      <c r="R141" s="138"/>
+      <c r="S141" s="138"/>
+      <c r="T141" s="138"/>
+      <c r="U141" s="138"/>
+      <c r="V141" s="138"/>
+      <c r="W141" s="139"/>
+      <c r="X141" s="137"/>
+      <c r="Y141" s="140"/>
+      <c r="Z141" s="140"/>
+      <c r="AA141" s="140"/>
+      <c r="AB141" s="138"/>
+      <c r="AC141" s="138"/>
+      <c r="AD141" s="138"/>
+      <c r="AE141" s="138"/>
+      <c r="AF141" s="140"/>
+      <c r="AG141" s="140"/>
+      <c r="AH141" s="138"/>
+      <c r="AI141" s="138"/>
+      <c r="AJ141" s="138"/>
+      <c r="AK141" s="138"/>
+      <c r="AL141" s="138"/>
+      <c r="AM141" s="138"/>
+      <c r="AN141" s="138"/>
+      <c r="AO141" s="138"/>
+      <c r="AP141" s="138"/>
+      <c r="AQ141" s="138"/>
+      <c r="AR141" s="138"/>
+      <c r="AS141" s="138"/>
+      <c r="AT141" s="138"/>
+      <c r="AU141" s="138"/>
+      <c r="AV141" s="139"/>
       <c r="AW141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="D142" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E142" s="138"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="19"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
-      <c r="AD142" s="19"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="19"/>
-      <c r="AG142" s="19"/>
-      <c r="AH142" s="19"/>
-      <c r="AI142" s="19"/>
-      <c r="AJ142" s="19"/>
-      <c r="AK142" s="19"/>
-      <c r="AL142" s="19"/>
-      <c r="AM142" s="19"/>
-      <c r="AN142" s="19"/>
-      <c r="AO142" s="19"/>
-      <c r="AP142" s="19"/>
-      <c r="AQ142" s="19"/>
-      <c r="AR142" s="19"/>
-      <c r="AS142" s="19"/>
-      <c r="AT142" s="19"/>
-      <c r="AU142" s="19"/>
-      <c r="AV142" s="19"/>
+      <c r="C142" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="E142" s="143"/>
+      <c r="F142" s="143"/>
+      <c r="G142" s="143"/>
+      <c r="H142" s="143"/>
+      <c r="I142" s="143"/>
+      <c r="J142" s="143"/>
+      <c r="K142" s="143"/>
+      <c r="L142" s="143"/>
+      <c r="M142" s="144"/>
+      <c r="N142" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="O142" s="143"/>
+      <c r="P142" s="143"/>
+      <c r="Q142" s="143"/>
+      <c r="R142" s="143"/>
+      <c r="S142" s="143"/>
+      <c r="T142" s="143"/>
+      <c r="U142" s="143"/>
+      <c r="V142" s="143"/>
+      <c r="W142" s="144"/>
+      <c r="X142" s="142"/>
+      <c r="Y142" s="145"/>
+      <c r="Z142" s="145"/>
+      <c r="AA142" s="145"/>
+      <c r="AB142" s="143"/>
+      <c r="AC142" s="143"/>
+      <c r="AD142" s="143"/>
+      <c r="AE142" s="143"/>
+      <c r="AF142" s="145"/>
+      <c r="AG142" s="145"/>
+      <c r="AH142" s="143"/>
+      <c r="AI142" s="143"/>
+      <c r="AJ142" s="143"/>
+      <c r="AK142" s="143"/>
+      <c r="AL142" s="143"/>
+      <c r="AM142" s="143"/>
+      <c r="AN142" s="143"/>
+      <c r="AO142" s="143"/>
+      <c r="AP142" s="143"/>
+      <c r="AQ142" s="143"/>
+      <c r="AR142" s="143"/>
+      <c r="AS142" s="143"/>
+      <c r="AT142" s="143"/>
+      <c r="AU142" s="143"/>
+      <c r="AV142" s="144"/>
       <c r="AW142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="171" t="s">
-        <v>101</v>
-      </c>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="19"/>
-      <c r="U143" s="19"/>
-      <c r="V143" s="19"/>
-      <c r="W143" s="19"/>
-      <c r="X143" s="19"/>
-      <c r="Y143" s="19"/>
-      <c r="Z143" s="19"/>
-      <c r="AA143" s="19"/>
-      <c r="AB143" s="19"/>
-      <c r="AC143" s="19"/>
-      <c r="AD143" s="19"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="19"/>
-      <c r="AG143" s="19"/>
-      <c r="AH143" s="19"/>
-      <c r="AI143" s="19"/>
-      <c r="AJ143" s="19"/>
-      <c r="AK143" s="19"/>
-      <c r="AL143" s="19"/>
-      <c r="AM143" s="19"/>
-      <c r="AN143" s="19"/>
-      <c r="AO143" s="19"/>
-      <c r="AP143" s="19"/>
-      <c r="AQ143" s="19"/>
-      <c r="AR143" s="19"/>
-      <c r="AS143" s="19"/>
-      <c r="AT143" s="19"/>
-      <c r="AU143" s="19"/>
-      <c r="AV143" s="19"/>
+      <c r="C143" s="146"/>
+      <c r="D143" s="147"/>
+      <c r="E143" s="148"/>
+      <c r="F143" s="148"/>
+      <c r="G143" s="148"/>
+      <c r="H143" s="148"/>
+      <c r="I143" s="148"/>
+      <c r="J143" s="148"/>
+      <c r="K143" s="148"/>
+      <c r="L143" s="148"/>
+      <c r="M143" s="149"/>
+      <c r="N143" s="150"/>
+      <c r="O143" s="151"/>
+      <c r="P143" s="151"/>
+      <c r="Q143" s="151"/>
+      <c r="R143" s="151"/>
+      <c r="S143" s="151"/>
+      <c r="T143" s="151"/>
+      <c r="U143" s="151"/>
+      <c r="V143" s="151"/>
+      <c r="W143" s="152"/>
+      <c r="X143" s="150"/>
+      <c r="Y143" s="153"/>
+      <c r="Z143" s="153"/>
+      <c r="AA143" s="153"/>
+      <c r="AB143" s="151"/>
+      <c r="AC143" s="151"/>
+      <c r="AD143" s="151"/>
+      <c r="AE143" s="151"/>
+      <c r="AF143" s="153"/>
+      <c r="AG143" s="153"/>
+      <c r="AH143" s="151"/>
+      <c r="AI143" s="151"/>
+      <c r="AJ143" s="151"/>
+      <c r="AK143" s="151"/>
+      <c r="AL143" s="151"/>
+      <c r="AM143" s="151"/>
+      <c r="AN143" s="151"/>
+      <c r="AO143" s="151"/>
+      <c r="AP143" s="151"/>
+      <c r="AQ143" s="151"/>
+      <c r="AR143" s="151"/>
+      <c r="AS143" s="151"/>
+      <c r="AT143" s="151"/>
+      <c r="AU143" s="151"/>
+      <c r="AV143" s="154"/>
       <c r="AW143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="172" t="s">
-        <v>47</v>
-      </c>
-      <c r="F144" s="173" t="s">
-        <v>62</v>
-      </c>
-      <c r="G144" s="173"/>
-      <c r="H144" s="173"/>
-      <c r="I144" s="173"/>
-      <c r="J144" s="173"/>
-      <c r="K144" s="173"/>
-      <c r="L144" s="173"/>
-      <c r="M144" s="173"/>
-      <c r="N144" s="173" t="s">
-        <v>102</v>
-      </c>
-      <c r="O144" s="173"/>
-      <c r="P144" s="173"/>
-      <c r="Q144" s="173"/>
-      <c r="R144" s="173"/>
-      <c r="S144" s="173"/>
-      <c r="T144" s="173"/>
-      <c r="U144" s="173"/>
-      <c r="V144" s="173"/>
-      <c r="W144" s="173"/>
-      <c r="X144" s="173"/>
-      <c r="Y144" s="173"/>
-      <c r="Z144" s="173"/>
-      <c r="AA144" s="173"/>
-      <c r="AB144" s="173"/>
-      <c r="AC144" s="173"/>
-      <c r="AD144" s="173"/>
-      <c r="AE144" s="173"/>
-      <c r="AF144" s="173"/>
-      <c r="AG144" s="173"/>
-      <c r="AH144" s="173"/>
-      <c r="AI144" s="173"/>
-      <c r="AJ144" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK144" s="174"/>
-      <c r="AL144" s="174"/>
-      <c r="AM144" s="174"/>
-      <c r="AN144" s="174"/>
-      <c r="AO144" s="174"/>
-      <c r="AP144" s="174"/>
-      <c r="AQ144" s="174"/>
-      <c r="AR144" s="174"/>
-      <c r="AS144" s="174"/>
-      <c r="AT144" s="174"/>
-      <c r="AU144" s="174"/>
-      <c r="AV144" s="19"/>
+      <c r="AM144" s="19"/>
+      <c r="AN144" s="19"/>
+      <c r="AO144" s="19"/>
+      <c r="AP144" s="19"/>
+      <c r="AR144" s="19"/>
+      <c r="AS144" s="19"/>
+      <c r="AT144" s="19"/>
+      <c r="AU144" s="19"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" s="176" t="s">
-        <v>68</v>
-      </c>
-      <c r="G145" s="177"/>
-      <c r="H145" s="177"/>
-      <c r="I145" s="178"/>
-      <c r="J145" s="178"/>
-      <c r="K145" s="178"/>
-      <c r="L145" s="178"/>
-      <c r="M145" s="179"/>
-      <c r="N145" s="180" t="s">
-        <v>104</v>
-      </c>
-      <c r="O145" s="177"/>
-      <c r="P145" s="177"/>
-      <c r="Q145" s="178"/>
-      <c r="R145" s="178"/>
-      <c r="S145" s="178"/>
-      <c r="T145" s="178"/>
-      <c r="U145" s="178"/>
-      <c r="V145" s="181"/>
-      <c r="W145" s="181"/>
-      <c r="X145" s="181"/>
-      <c r="Y145" s="181"/>
-      <c r="Z145" s="181"/>
-      <c r="AA145" s="181"/>
-      <c r="AB145" s="181"/>
-      <c r="AC145" s="181"/>
-      <c r="AD145" s="181"/>
-      <c r="AE145" s="181"/>
-      <c r="AF145" s="181"/>
-      <c r="AG145" s="181"/>
-      <c r="AH145" s="181"/>
-      <c r="AI145" s="182"/>
-      <c r="AJ145" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK145" s="184"/>
-      <c r="AL145" s="184"/>
-      <c r="AM145" s="184"/>
-      <c r="AN145" s="184"/>
-      <c r="AO145" s="184"/>
-      <c r="AP145" s="184"/>
-      <c r="AQ145" s="184"/>
-      <c r="AR145" s="184"/>
-      <c r="AS145" s="184"/>
-      <c r="AT145" s="184"/>
-      <c r="AU145" s="185"/>
+      <c r="C145" s="0"/>
+      <c r="D145" s="0"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
+      <c r="H145" s="0"/>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
+      <c r="L145" s="0"/>
+      <c r="M145" s="0"/>
+      <c r="N145" s="0"/>
+      <c r="O145" s="0"/>
+      <c r="P145" s="0"/>
+      <c r="Q145" s="0"/>
+      <c r="R145" s="0"/>
+      <c r="S145" s="0"/>
+      <c r="T145" s="0"/>
+      <c r="U145" s="0"/>
+      <c r="V145" s="0"/>
+      <c r="W145" s="0"/>
+      <c r="X145" s="0"/>
+      <c r="Y145" s="0"/>
+      <c r="Z145" s="0"/>
+      <c r="AA145" s="0"/>
+      <c r="AB145" s="0"/>
+      <c r="AC145" s="0"/>
+      <c r="AD145" s="0"/>
+      <c r="AE145" s="0"/>
+      <c r="AF145" s="0"/>
+      <c r="AG145" s="0"/>
+      <c r="AH145" s="0"/>
+      <c r="AI145" s="0"/>
+      <c r="AJ145" s="0"/>
+      <c r="AK145" s="0"/>
+      <c r="AL145" s="0"/>
+      <c r="AM145" s="0"/>
+      <c r="AN145" s="0"/>
+      <c r="AO145" s="0"/>
+      <c r="AP145" s="0"/>
+      <c r="AQ145" s="0"/>
+      <c r="AR145" s="0"/>
+      <c r="AS145" s="0"/>
+      <c r="AT145" s="0"/>
+      <c r="AU145" s="0"/>
       <c r="AV145" s="19"/>
       <c r="AW145" s="20"/>
-      <c r="AY145" s="186"/>
+      <c r="AY145" s="156"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
+      <c r="C146" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="D146" s="19"/>
-      <c r="E146" s="187" t="n">
-        <v>2</v>
-      </c>
-      <c r="F146" s="188" t="s">
-        <v>73</v>
-      </c>
-      <c r="G146" s="189"/>
-      <c r="H146" s="189"/>
-      <c r="I146" s="190"/>
-      <c r="J146" s="190"/>
-      <c r="K146" s="190"/>
-      <c r="L146" s="190"/>
-      <c r="M146" s="191"/>
-      <c r="N146" s="188" t="s">
-        <v>104</v>
-      </c>
-      <c r="O146" s="189"/>
-      <c r="P146" s="189"/>
-      <c r="Q146" s="190"/>
-      <c r="R146" s="190"/>
-      <c r="S146" s="190"/>
-      <c r="T146" s="190"/>
-      <c r="U146" s="190"/>
-      <c r="V146" s="192"/>
-      <c r="W146" s="192"/>
-      <c r="X146" s="192"/>
-      <c r="Y146" s="192"/>
-      <c r="Z146" s="192"/>
-      <c r="AA146" s="192"/>
-      <c r="AB146" s="192"/>
-      <c r="AC146" s="192"/>
-      <c r="AD146" s="192"/>
-      <c r="AE146" s="192"/>
-      <c r="AF146" s="192"/>
-      <c r="AG146" s="192"/>
-      <c r="AH146" s="192"/>
-      <c r="AI146" s="193"/>
-      <c r="AJ146" s="194" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK146" s="195"/>
-      <c r="AL146" s="195"/>
-      <c r="AM146" s="195"/>
-      <c r="AN146" s="195"/>
-      <c r="AO146" s="195"/>
-      <c r="AP146" s="195"/>
-      <c r="AQ146" s="195"/>
-      <c r="AR146" s="195"/>
-      <c r="AS146" s="195"/>
-      <c r="AT146" s="195"/>
-      <c r="AU146" s="196"/>
+      <c r="E146" s="131"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="24"/>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+      <c r="Z146" s="24"/>
+      <c r="AA146" s="24"/>
+      <c r="AB146" s="24"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="24"/>
+      <c r="AI146" s="24"/>
+      <c r="AJ146" s="24"/>
+      <c r="AK146" s="24"/>
+      <c r="AL146" s="24"/>
+      <c r="AM146" s="24"/>
+      <c r="AN146" s="24"/>
+      <c r="AO146" s="24"/>
+      <c r="AP146" s="24"/>
+      <c r="AQ146" s="24"/>
+      <c r="AR146" s="24"/>
+      <c r="AS146" s="24"/>
+      <c r="AT146" s="24"/>
+      <c r="AU146" s="24"/>
       <c r="AV146" s="19"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="186"/>
+      <c r="AY146" s="156"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="197" t="n">
-        <v>3</v>
-      </c>
-      <c r="F147" s="198" t="s">
-        <v>68</v>
-      </c>
-      <c r="G147" s="199"/>
-      <c r="H147" s="199"/>
-      <c r="I147" s="200"/>
-      <c r="J147" s="200"/>
-      <c r="K147" s="200"/>
-      <c r="L147" s="200"/>
-      <c r="M147" s="201"/>
-      <c r="N147" s="202" t="s">
-        <v>107</v>
-      </c>
-      <c r="O147" s="202"/>
-      <c r="P147" s="202"/>
-      <c r="Q147" s="202"/>
-      <c r="R147" s="202"/>
-      <c r="S147" s="202"/>
-      <c r="T147" s="202"/>
-      <c r="U147" s="202"/>
-      <c r="V147" s="202"/>
-      <c r="W147" s="202"/>
-      <c r="X147" s="202"/>
-      <c r="Y147" s="202"/>
-      <c r="Z147" s="202"/>
-      <c r="AA147" s="202"/>
-      <c r="AB147" s="202"/>
-      <c r="AC147" s="202"/>
-      <c r="AD147" s="202"/>
-      <c r="AE147" s="202"/>
-      <c r="AF147" s="202"/>
-      <c r="AG147" s="202"/>
-      <c r="AH147" s="202"/>
-      <c r="AI147" s="202"/>
-      <c r="AJ147" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK147" s="204"/>
-      <c r="AL147" s="204"/>
-      <c r="AM147" s="204"/>
-      <c r="AN147" s="204"/>
-      <c r="AO147" s="204"/>
-      <c r="AP147" s="204"/>
-      <c r="AQ147" s="204"/>
-      <c r="AR147" s="204"/>
-      <c r="AS147" s="204"/>
-      <c r="AT147" s="204"/>
-      <c r="AU147" s="205"/>
+      <c r="D147" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="131"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+      <c r="AJ147" s="19"/>
+      <c r="AK147" s="19"/>
+      <c r="AL147" s="19"/>
+      <c r="AM147" s="19"/>
+      <c r="AN147" s="19"/>
+      <c r="AO147" s="19"/>
+      <c r="AP147" s="19"/>
+      <c r="AQ147" s="19"/>
+      <c r="AR147" s="19"/>
+      <c r="AS147" s="19"/>
+      <c r="AT147" s="19"/>
+      <c r="AU147" s="19"/>
       <c r="AV147" s="19"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="186"/>
+      <c r="AY147" s="156"/>
     </row>
     <row r="148" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="187" t="n">
-        <v>4</v>
-      </c>
-      <c r="F148" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="G148" s="189"/>
-      <c r="H148" s="189"/>
-      <c r="I148" s="190"/>
-      <c r="J148" s="190"/>
-      <c r="K148" s="190"/>
-      <c r="L148" s="190"/>
-      <c r="M148" s="191"/>
-      <c r="N148" s="188" t="s">
-        <v>109</v>
-      </c>
-      <c r="O148" s="189"/>
-      <c r="P148" s="189"/>
-      <c r="Q148" s="190"/>
-      <c r="R148" s="190"/>
-      <c r="S148" s="190"/>
-      <c r="T148" s="190"/>
-      <c r="U148" s="190"/>
-      <c r="V148" s="192"/>
-      <c r="W148" s="192"/>
-      <c r="X148" s="192"/>
-      <c r="Y148" s="192"/>
-      <c r="Z148" s="192"/>
-      <c r="AA148" s="192"/>
-      <c r="AB148" s="192"/>
-      <c r="AC148" s="192"/>
-      <c r="AD148" s="192"/>
-      <c r="AE148" s="192"/>
-      <c r="AF148" s="192"/>
-      <c r="AG148" s="192"/>
-      <c r="AH148" s="192"/>
-      <c r="AI148" s="193"/>
-      <c r="AJ148" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK148" s="195"/>
-      <c r="AL148" s="195"/>
-      <c r="AM148" s="195"/>
-      <c r="AN148" s="195"/>
-      <c r="AO148" s="195"/>
-      <c r="AP148" s="195"/>
-      <c r="AQ148" s="195"/>
-      <c r="AR148" s="195"/>
-      <c r="AS148" s="195"/>
-      <c r="AT148" s="195"/>
-      <c r="AU148" s="196"/>
+      <c r="D148" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E148" s="131"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
+      <c r="V148" s="19"/>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="19"/>
+      <c r="Z148" s="19"/>
+      <c r="AA148" s="19"/>
+      <c r="AB148" s="19"/>
+      <c r="AC148" s="19"/>
+      <c r="AD148" s="19"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="19"/>
+      <c r="AG148" s="19"/>
+      <c r="AH148" s="19"/>
+      <c r="AI148" s="19"/>
+      <c r="AJ148" s="19"/>
+      <c r="AK148" s="19"/>
+      <c r="AL148" s="19"/>
+      <c r="AM148" s="19"/>
+      <c r="AN148" s="19"/>
+      <c r="AO148" s="19"/>
+      <c r="AP148" s="19"/>
+      <c r="AQ148" s="19"/>
+      <c r="AR148" s="19"/>
+      <c r="AS148" s="19"/>
+      <c r="AT148" s="19"/>
+      <c r="AU148" s="19"/>
       <c r="AV148" s="19"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="206"/>
-      <c r="AZ148" s="206"/>
-      <c r="BA148" s="206"/>
-      <c r="BB148" s="206"/>
-      <c r="BC148" s="206"/>
-      <c r="BD148" s="206"/>
-      <c r="BE148" s="206"/>
-      <c r="BF148" s="206"/>
-      <c r="BG148" s="206"/>
-      <c r="BH148" s="206"/>
-      <c r="BI148" s="206"/>
-      <c r="BJ148" s="206"/>
+      <c r="AY148" s="157"/>
+      <c r="AZ148" s="157"/>
+      <c r="BA148" s="157"/>
+      <c r="BB148" s="157"/>
+      <c r="BC148" s="157"/>
+      <c r="BD148" s="157"/>
+      <c r="BE148" s="157"/>
+      <c r="BF148" s="157"/>
+      <c r="BG148" s="157"/>
+      <c r="BH148" s="157"/>
+      <c r="BI148" s="157"/>
+      <c r="BJ148" s="157"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="D149" s="19"/>
-      <c r="E149" s="197" t="n">
-        <v>5</v>
-      </c>
-      <c r="F149" s="198" t="s">
-        <v>73</v>
-      </c>
-      <c r="G149" s="199"/>
-      <c r="H149" s="199"/>
-      <c r="I149" s="200"/>
-      <c r="J149" s="200"/>
-      <c r="K149" s="200"/>
-      <c r="L149" s="200"/>
-      <c r="M149" s="201"/>
-      <c r="N149" s="202" t="s">
-        <v>111</v>
-      </c>
-      <c r="O149" s="202"/>
-      <c r="P149" s="202"/>
-      <c r="Q149" s="202"/>
-      <c r="R149" s="202"/>
-      <c r="S149" s="202"/>
-      <c r="T149" s="202"/>
-      <c r="U149" s="202"/>
-      <c r="V149" s="202"/>
-      <c r="W149" s="202"/>
-      <c r="X149" s="202"/>
-      <c r="Y149" s="202"/>
-      <c r="Z149" s="202"/>
-      <c r="AA149" s="202"/>
-      <c r="AB149" s="202"/>
-      <c r="AC149" s="202"/>
-      <c r="AD149" s="202"/>
-      <c r="AE149" s="202"/>
-      <c r="AF149" s="202"/>
-      <c r="AG149" s="202"/>
-      <c r="AH149" s="202"/>
-      <c r="AI149" s="202"/>
-      <c r="AJ149" s="203" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK149" s="204"/>
-      <c r="AL149" s="204"/>
-      <c r="AM149" s="204"/>
-      <c r="AN149" s="204"/>
-      <c r="AO149" s="204"/>
-      <c r="AP149" s="204"/>
-      <c r="AQ149" s="204"/>
-      <c r="AR149" s="204"/>
-      <c r="AS149" s="204"/>
-      <c r="AT149" s="204"/>
-      <c r="AU149" s="205"/>
+      <c r="E149" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
+      <c r="Z149" s="19"/>
+      <c r="AA149" s="19"/>
+      <c r="AB149" s="19"/>
+      <c r="AC149" s="19"/>
+      <c r="AD149" s="19"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="19"/>
+      <c r="AG149" s="19"/>
+      <c r="AH149" s="19"/>
+      <c r="AI149" s="19"/>
+      <c r="AJ149" s="19"/>
+      <c r="AK149" s="19"/>
+      <c r="AL149" s="19"/>
+      <c r="AM149" s="19"/>
+      <c r="AN149" s="19"/>
+      <c r="AO149" s="19"/>
+      <c r="AP149" s="19"/>
+      <c r="AQ149" s="19"/>
+      <c r="AR149" s="19"/>
+      <c r="AS149" s="19"/>
+      <c r="AT149" s="19"/>
+      <c r="AU149" s="19"/>
       <c r="AV149" s="19"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="D150" s="19"/>
-      <c r="E150" s="138"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="19"/>
-      <c r="W150" s="19"/>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="19"/>
-      <c r="Z150" s="19"/>
-      <c r="AA150" s="19"/>
-      <c r="AB150" s="19"/>
-      <c r="AC150" s="19"/>
-      <c r="AD150" s="19"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="19"/>
-      <c r="AG150" s="19"/>
-      <c r="AH150" s="19"/>
-      <c r="AI150" s="19"/>
-      <c r="AJ150" s="19"/>
-      <c r="AK150" s="19"/>
-      <c r="AL150" s="19"/>
-      <c r="AM150" s="19"/>
-      <c r="AN150" s="19"/>
-      <c r="AO150" s="19"/>
-      <c r="AP150" s="19"/>
-      <c r="AQ150" s="19"/>
-      <c r="AR150" s="19"/>
-      <c r="AS150" s="19"/>
-      <c r="AT150" s="19"/>
-      <c r="AU150" s="19"/>
+      <c r="E150" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="G150" s="160"/>
+      <c r="H150" s="160"/>
+      <c r="I150" s="160"/>
+      <c r="J150" s="160"/>
+      <c r="K150" s="160"/>
+      <c r="L150" s="160"/>
+      <c r="M150" s="160"/>
+      <c r="N150" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="O150" s="160"/>
+      <c r="P150" s="160"/>
+      <c r="Q150" s="160"/>
+      <c r="R150" s="160"/>
+      <c r="S150" s="160"/>
+      <c r="T150" s="160"/>
+      <c r="U150" s="160"/>
+      <c r="V150" s="160"/>
+      <c r="W150" s="160"/>
+      <c r="X150" s="160"/>
+      <c r="Y150" s="160"/>
+      <c r="Z150" s="160"/>
+      <c r="AA150" s="160"/>
+      <c r="AB150" s="160"/>
+      <c r="AC150" s="160"/>
+      <c r="AD150" s="160"/>
+      <c r="AE150" s="160"/>
+      <c r="AF150" s="160"/>
+      <c r="AG150" s="160"/>
+      <c r="AH150" s="160"/>
+      <c r="AI150" s="160"/>
+      <c r="AJ150" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK150" s="161"/>
+      <c r="AL150" s="161"/>
+      <c r="AM150" s="161"/>
+      <c r="AN150" s="161"/>
+      <c r="AO150" s="161"/>
+      <c r="AP150" s="161"/>
+      <c r="AQ150" s="161"/>
+      <c r="AR150" s="161"/>
+      <c r="AS150" s="161"/>
+      <c r="AT150" s="161"/>
+      <c r="AU150" s="161"/>
       <c r="AV150" s="19"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="D151" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E151" s="207"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="24"/>
-      <c r="O151" s="24"/>
-      <c r="P151" s="24"/>
-      <c r="Q151" s="24"/>
-      <c r="R151" s="24"/>
-      <c r="S151" s="24"/>
-      <c r="T151" s="24"/>
-      <c r="U151" s="24"/>
-      <c r="V151" s="24"/>
-      <c r="W151" s="24"/>
-      <c r="X151" s="24"/>
-      <c r="Y151" s="24"/>
-      <c r="Z151" s="24"/>
-      <c r="AA151" s="24"/>
-      <c r="AB151" s="24"/>
-      <c r="AC151" s="24"/>
-      <c r="AD151" s="24"/>
-      <c r="AF151" s="24"/>
-      <c r="AG151" s="24"/>
-      <c r="AH151" s="24"/>
-      <c r="AI151" s="24"/>
-      <c r="AJ151" s="24"/>
-      <c r="AK151" s="24"/>
-      <c r="AL151" s="24"/>
-      <c r="AM151" s="24"/>
-      <c r="AN151" s="24"/>
-      <c r="AO151" s="24"/>
-      <c r="AP151" s="24"/>
-      <c r="AQ151" s="24"/>
-      <c r="AR151" s="24"/>
-      <c r="AS151" s="24"/>
-      <c r="AT151" s="24"/>
-      <c r="AU151" s="24"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="163" t="s">
+        <v>68</v>
+      </c>
+      <c r="G151" s="164"/>
+      <c r="H151" s="164"/>
+      <c r="I151" s="165"/>
+      <c r="J151" s="165"/>
+      <c r="K151" s="165"/>
+      <c r="L151" s="165"/>
+      <c r="M151" s="166"/>
+      <c r="N151" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="O151" s="164"/>
+      <c r="P151" s="164"/>
+      <c r="Q151" s="165"/>
+      <c r="R151" s="165"/>
+      <c r="S151" s="165"/>
+      <c r="T151" s="165"/>
+      <c r="U151" s="165"/>
+      <c r="V151" s="168"/>
+      <c r="W151" s="168"/>
+      <c r="X151" s="168"/>
+      <c r="Y151" s="168"/>
+      <c r="Z151" s="168"/>
+      <c r="AA151" s="168"/>
+      <c r="AB151" s="168"/>
+      <c r="AC151" s="168"/>
+      <c r="AD151" s="168"/>
+      <c r="AE151" s="168"/>
+      <c r="AF151" s="168"/>
+      <c r="AG151" s="168"/>
+      <c r="AH151" s="168"/>
+      <c r="AI151" s="169"/>
+      <c r="AJ151" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK151" s="171"/>
+      <c r="AL151" s="171"/>
+      <c r="AM151" s="171"/>
+      <c r="AN151" s="171"/>
+      <c r="AO151" s="171"/>
+      <c r="AP151" s="171"/>
+      <c r="AQ151" s="171"/>
+      <c r="AR151" s="171"/>
+      <c r="AS151" s="171"/>
+      <c r="AT151" s="171"/>
+      <c r="AU151" s="172"/>
       <c r="AV151" s="19"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="208"/>
-      <c r="F152" s="209"/>
-      <c r="G152" s="209"/>
-      <c r="H152" s="209"/>
-      <c r="I152" s="209"/>
-      <c r="J152" s="209"/>
-      <c r="K152" s="209"/>
-      <c r="L152" s="209"/>
-      <c r="M152" s="209"/>
-      <c r="N152" s="209"/>
-      <c r="O152" s="209"/>
-      <c r="P152" s="209"/>
-      <c r="Q152" s="209"/>
-      <c r="R152" s="209"/>
-      <c r="S152" s="209"/>
-      <c r="T152" s="209"/>
-      <c r="U152" s="209"/>
-      <c r="V152" s="209"/>
-      <c r="W152" s="209"/>
-      <c r="X152" s="209"/>
-      <c r="Y152" s="209"/>
-      <c r="Z152" s="209"/>
-      <c r="AA152" s="209"/>
-      <c r="AB152" s="209"/>
-      <c r="AC152" s="209"/>
-      <c r="AD152" s="209"/>
-      <c r="AE152" s="209"/>
-      <c r="AF152" s="209"/>
-      <c r="AG152" s="209"/>
-      <c r="AH152" s="209"/>
-      <c r="AI152" s="209"/>
-      <c r="AJ152" s="209"/>
-      <c r="AK152" s="209"/>
-      <c r="AL152" s="209"/>
-      <c r="AM152" s="209"/>
-      <c r="AN152" s="209"/>
-      <c r="AO152" s="209"/>
-      <c r="AP152" s="209"/>
-      <c r="AQ152" s="209"/>
-      <c r="AR152" s="209"/>
-      <c r="AS152" s="209"/>
-      <c r="AT152" s="209"/>
-      <c r="AU152" s="209"/>
+      <c r="E152" s="173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152" s="175"/>
+      <c r="H152" s="175"/>
+      <c r="I152" s="176"/>
+      <c r="J152" s="176"/>
+      <c r="K152" s="176"/>
+      <c r="L152" s="176"/>
+      <c r="M152" s="177"/>
+      <c r="N152" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="O152" s="175"/>
+      <c r="P152" s="175"/>
+      <c r="Q152" s="176"/>
+      <c r="R152" s="176"/>
+      <c r="S152" s="176"/>
+      <c r="T152" s="176"/>
+      <c r="U152" s="176"/>
+      <c r="V152" s="178"/>
+      <c r="W152" s="178"/>
+      <c r="X152" s="178"/>
+      <c r="Y152" s="178"/>
+      <c r="Z152" s="178"/>
+      <c r="AA152" s="178"/>
+      <c r="AB152" s="178"/>
+      <c r="AC152" s="178"/>
+      <c r="AD152" s="178"/>
+      <c r="AE152" s="178"/>
+      <c r="AF152" s="178"/>
+      <c r="AG152" s="178"/>
+      <c r="AH152" s="178"/>
+      <c r="AI152" s="179"/>
+      <c r="AJ152" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK152" s="181"/>
+      <c r="AL152" s="181"/>
+      <c r="AM152" s="181"/>
+      <c r="AN152" s="181"/>
+      <c r="AO152" s="181"/>
+      <c r="AP152" s="181"/>
+      <c r="AQ152" s="181"/>
+      <c r="AR152" s="181"/>
+      <c r="AS152" s="181"/>
+      <c r="AT152" s="181"/>
+      <c r="AU152" s="182"/>
       <c r="AV152" s="19"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="210" t="s">
-        <v>114</v>
-      </c>
-      <c r="F153" s="210"/>
-      <c r="G153" s="210"/>
-      <c r="H153" s="210"/>
-      <c r="I153" s="210"/>
-      <c r="J153" s="210"/>
-      <c r="K153" s="210"/>
-      <c r="L153" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="M153" s="211"/>
-      <c r="N153" s="211"/>
-      <c r="O153" s="211"/>
-      <c r="P153" s="211"/>
-      <c r="Q153" s="211"/>
-      <c r="R153" s="211"/>
-      <c r="S153" s="211"/>
-      <c r="T153" s="211"/>
-      <c r="U153" s="211"/>
-      <c r="V153" s="211"/>
-      <c r="W153" s="211"/>
-      <c r="X153" s="211"/>
-      <c r="Y153" s="211"/>
-      <c r="Z153" s="211"/>
-      <c r="AA153" s="211"/>
-      <c r="AB153" s="211"/>
-      <c r="AC153" s="211"/>
-      <c r="AD153" s="211"/>
-      <c r="AE153" s="211"/>
-      <c r="AF153" s="211"/>
-      <c r="AG153" s="211"/>
-      <c r="AH153" s="211"/>
-      <c r="AI153" s="211"/>
-      <c r="AJ153" s="211"/>
-      <c r="AK153" s="211"/>
-      <c r="AL153" s="211"/>
-      <c r="AM153" s="211"/>
-      <c r="AN153" s="211"/>
-      <c r="AO153" s="211"/>
-      <c r="AP153" s="211"/>
-      <c r="AQ153" s="211"/>
-      <c r="AR153" s="211"/>
-      <c r="AS153" s="211"/>
-      <c r="AT153" s="211"/>
-      <c r="AU153" s="211"/>
+      <c r="E153" s="183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F153" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="G153" s="185"/>
+      <c r="H153" s="185"/>
+      <c r="I153" s="186"/>
+      <c r="J153" s="186"/>
+      <c r="K153" s="186"/>
+      <c r="L153" s="186"/>
+      <c r="M153" s="187"/>
+      <c r="N153" s="188" t="s">
+        <v>106</v>
+      </c>
+      <c r="O153" s="188"/>
+      <c r="P153" s="188"/>
+      <c r="Q153" s="188"/>
+      <c r="R153" s="188"/>
+      <c r="S153" s="188"/>
+      <c r="T153" s="188"/>
+      <c r="U153" s="188"/>
+      <c r="V153" s="188"/>
+      <c r="W153" s="188"/>
+      <c r="X153" s="188"/>
+      <c r="Y153" s="188"/>
+      <c r="Z153" s="188"/>
+      <c r="AA153" s="188"/>
+      <c r="AB153" s="188"/>
+      <c r="AC153" s="188"/>
+      <c r="AD153" s="188"/>
+      <c r="AE153" s="188"/>
+      <c r="AF153" s="188"/>
+      <c r="AG153" s="188"/>
+      <c r="AH153" s="188"/>
+      <c r="AI153" s="188"/>
+      <c r="AJ153" s="189" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK153" s="190"/>
+      <c r="AL153" s="190"/>
+      <c r="AM153" s="190"/>
+      <c r="AN153" s="190"/>
+      <c r="AO153" s="190"/>
+      <c r="AP153" s="190"/>
+      <c r="AQ153" s="190"/>
+      <c r="AR153" s="190"/>
+      <c r="AS153" s="190"/>
+      <c r="AT153" s="190"/>
+      <c r="AU153" s="191"/>
       <c r="AV153" s="19"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="210" t="s">
-        <v>53</v>
-      </c>
-      <c r="F154" s="210"/>
-      <c r="G154" s="210"/>
-      <c r="H154" s="210"/>
-      <c r="I154" s="210"/>
-      <c r="J154" s="210"/>
-      <c r="K154" s="210"/>
-      <c r="L154" s="212"/>
-      <c r="M154" s="178"/>
-      <c r="N154" s="178" t="s">
-        <v>116</v>
-      </c>
-      <c r="O154" s="178"/>
-      <c r="P154" s="178"/>
-      <c r="Q154" s="181"/>
-      <c r="R154" s="181"/>
-      <c r="S154" s="181"/>
-      <c r="T154" s="181"/>
-      <c r="U154" s="181"/>
-      <c r="V154" s="181"/>
-      <c r="W154" s="181"/>
-      <c r="X154" s="181"/>
-      <c r="Y154" s="213" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z154" s="181" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA154" s="181"/>
-      <c r="AB154" s="181"/>
-      <c r="AC154" s="181"/>
-      <c r="AD154" s="181"/>
-      <c r="AE154" s="181"/>
-      <c r="AF154" s="181"/>
-      <c r="AG154" s="181"/>
-      <c r="AH154" s="181"/>
-      <c r="AI154" s="181"/>
-      <c r="AJ154" s="181"/>
+      <c r="E154" s="173" t="n">
+        <v>4</v>
+      </c>
+      <c r="F154" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="G154" s="175"/>
+      <c r="H154" s="175"/>
+      <c r="I154" s="176"/>
+      <c r="J154" s="176"/>
+      <c r="K154" s="176"/>
+      <c r="L154" s="176"/>
+      <c r="M154" s="177"/>
+      <c r="N154" s="174" t="s">
+        <v>108</v>
+      </c>
+      <c r="O154" s="175"/>
+      <c r="P154" s="175"/>
+      <c r="Q154" s="176"/>
+      <c r="R154" s="176"/>
+      <c r="S154" s="176"/>
+      <c r="T154" s="176"/>
+      <c r="U154" s="176"/>
+      <c r="V154" s="178"/>
+      <c r="W154" s="178"/>
+      <c r="X154" s="178"/>
+      <c r="Y154" s="178"/>
+      <c r="Z154" s="178"/>
+      <c r="AA154" s="178"/>
+      <c r="AB154" s="178"/>
+      <c r="AC154" s="178"/>
+      <c r="AD154" s="178"/>
+      <c r="AE154" s="178"/>
+      <c r="AF154" s="178"/>
+      <c r="AG154" s="178"/>
+      <c r="AH154" s="178"/>
+      <c r="AI154" s="179"/>
+      <c r="AJ154" s="180" t="s">
+        <v>109</v>
+      </c>
       <c r="AK154" s="181"/>
       <c r="AL154" s="181"/>
       <c r="AM154" s="181"/>
@@ -16338,62 +16410,64 @@
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="210"/>
-      <c r="F155" s="210"/>
-      <c r="G155" s="210"/>
-      <c r="H155" s="210"/>
-      <c r="I155" s="210"/>
-      <c r="J155" s="210"/>
-      <c r="K155" s="210"/>
-      <c r="L155" s="214"/>
-      <c r="M155" s="200"/>
-      <c r="N155" s="200" t="s">
-        <v>119</v>
-      </c>
-      <c r="O155" s="200"/>
-      <c r="P155" s="200"/>
-      <c r="Q155" s="215"/>
-      <c r="R155" s="215"/>
-      <c r="S155" s="215"/>
-      <c r="T155" s="215"/>
-      <c r="U155" s="215"/>
-      <c r="V155" s="215"/>
-      <c r="W155" s="215"/>
-      <c r="X155" s="215"/>
-      <c r="Y155" s="216" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z155" s="215" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA155" s="215"/>
-      <c r="AB155" s="215"/>
-      <c r="AC155" s="215"/>
-      <c r="AD155" s="215"/>
-      <c r="AE155" s="215"/>
-      <c r="AF155" s="215"/>
-      <c r="AG155" s="215"/>
-      <c r="AH155" s="215"/>
-      <c r="AI155" s="215"/>
-      <c r="AJ155" s="215"/>
-      <c r="AK155" s="215"/>
-      <c r="AL155" s="215"/>
-      <c r="AM155" s="215"/>
-      <c r="AN155" s="215"/>
-      <c r="AO155" s="215"/>
-      <c r="AP155" s="215"/>
-      <c r="AQ155" s="215"/>
-      <c r="AR155" s="215"/>
-      <c r="AS155" s="215"/>
-      <c r="AT155" s="215"/>
-      <c r="AU155" s="217"/>
+      <c r="E155" s="183" t="n">
+        <v>5</v>
+      </c>
+      <c r="F155" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="G155" s="185"/>
+      <c r="H155" s="185"/>
+      <c r="I155" s="186"/>
+      <c r="J155" s="186"/>
+      <c r="K155" s="186"/>
+      <c r="L155" s="186"/>
+      <c r="M155" s="187"/>
+      <c r="N155" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="O155" s="188"/>
+      <c r="P155" s="188"/>
+      <c r="Q155" s="188"/>
+      <c r="R155" s="188"/>
+      <c r="S155" s="188"/>
+      <c r="T155" s="188"/>
+      <c r="U155" s="188"/>
+      <c r="V155" s="188"/>
+      <c r="W155" s="188"/>
+      <c r="X155" s="188"/>
+      <c r="Y155" s="188"/>
+      <c r="Z155" s="188"/>
+      <c r="AA155" s="188"/>
+      <c r="AB155" s="188"/>
+      <c r="AC155" s="188"/>
+      <c r="AD155" s="188"/>
+      <c r="AE155" s="188"/>
+      <c r="AF155" s="188"/>
+      <c r="AG155" s="188"/>
+      <c r="AH155" s="188"/>
+      <c r="AI155" s="188"/>
+      <c r="AJ155" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK155" s="190"/>
+      <c r="AL155" s="190"/>
+      <c r="AM155" s="190"/>
+      <c r="AN155" s="190"/>
+      <c r="AO155" s="190"/>
+      <c r="AP155" s="190"/>
+      <c r="AQ155" s="190"/>
+      <c r="AR155" s="190"/>
+      <c r="AS155" s="190"/>
+      <c r="AT155" s="190"/>
+      <c r="AU155" s="191"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="207"/>
+      <c r="E156" s="131"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
@@ -16414,54 +16488,57 @@
       <c r="W156" s="19"/>
       <c r="X156" s="19"/>
       <c r="Y156" s="19"/>
-      <c r="Z156" s="24"/>
-      <c r="AA156" s="24"/>
-      <c r="AB156" s="24"/>
-      <c r="AC156" s="24"/>
-      <c r="AD156" s="24"/>
-      <c r="AF156" s="24"/>
-      <c r="AG156" s="24"/>
-      <c r="AH156" s="24"/>
-      <c r="AI156" s="24"/>
-      <c r="AJ156" s="24"/>
-      <c r="AK156" s="24"/>
-      <c r="AL156" s="24"/>
-      <c r="AM156" s="24"/>
-      <c r="AN156" s="24"/>
-      <c r="AO156" s="24"/>
-      <c r="AP156" s="24"/>
-      <c r="AQ156" s="24"/>
-      <c r="AR156" s="24"/>
-      <c r="AS156" s="24"/>
-      <c r="AT156" s="24"/>
-      <c r="AU156" s="24"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+      <c r="AB156" s="19"/>
+      <c r="AC156" s="19"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+      <c r="AH156" s="19"/>
+      <c r="AI156" s="19"/>
+      <c r="AJ156" s="19"/>
+      <c r="AK156" s="19"/>
+      <c r="AL156" s="19"/>
+      <c r="AM156" s="19"/>
+      <c r="AN156" s="19"/>
+      <c r="AO156" s="19"/>
+      <c r="AP156" s="19"/>
+      <c r="AQ156" s="19"/>
+      <c r="AR156" s="19"/>
+      <c r="AS156" s="19"/>
+      <c r="AT156" s="19"/>
+      <c r="AU156" s="19"/>
       <c r="AV156" s="19"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="D157" s="171"/>
-      <c r="E157" s="208"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
-      <c r="S157" s="19"/>
-      <c r="T157" s="19"/>
-      <c r="U157" s="19"/>
-      <c r="V157" s="19"/>
-      <c r="W157" s="19"/>
-      <c r="X157" s="19"/>
-      <c r="Y157" s="19"/>
+      <c r="D157" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E157" s="192"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+      <c r="R157" s="24"/>
+      <c r="S157" s="24"/>
+      <c r="T157" s="24"/>
+      <c r="U157" s="24"/>
+      <c r="V157" s="24"/>
+      <c r="W157" s="24"/>
+      <c r="X157" s="24"/>
+      <c r="Y157" s="24"/>
       <c r="Z157" s="24"/>
       <c r="AA157" s="24"/>
       <c r="AB157" s="24"/>
@@ -16488,409 +16565,441 @@
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="D158" s="171"/>
-      <c r="E158" s="207"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="24"/>
-      <c r="P158" s="24"/>
-      <c r="Q158" s="24"/>
-      <c r="R158" s="24"/>
-      <c r="S158" s="24"/>
-      <c r="T158" s="24"/>
-      <c r="U158" s="24"/>
-      <c r="V158" s="24"/>
-      <c r="W158" s="24"/>
-      <c r="X158" s="24"/>
-      <c r="Y158" s="24"/>
-      <c r="Z158" s="24"/>
-      <c r="AA158" s="24"/>
-      <c r="AB158" s="24"/>
-      <c r="AC158" s="24"/>
-      <c r="AD158" s="24"/>
-      <c r="AF158" s="24"/>
-      <c r="AG158" s="24"/>
-      <c r="AH158" s="24"/>
-      <c r="AI158" s="24"/>
-      <c r="AJ158" s="24"/>
-      <c r="AK158" s="24"/>
-      <c r="AL158" s="24"/>
-      <c r="AM158" s="24"/>
-      <c r="AN158" s="24"/>
-      <c r="AO158" s="24"/>
-      <c r="AP158" s="24"/>
-      <c r="AQ158" s="24"/>
-      <c r="AR158" s="24"/>
-      <c r="AS158" s="24"/>
-      <c r="AT158" s="24"/>
-      <c r="AU158" s="24"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="193"/>
+      <c r="F158" s="194"/>
+      <c r="G158" s="194"/>
+      <c r="H158" s="194"/>
+      <c r="I158" s="194"/>
+      <c r="J158" s="194"/>
+      <c r="K158" s="194"/>
+      <c r="L158" s="194"/>
+      <c r="M158" s="194"/>
+      <c r="N158" s="194"/>
+      <c r="O158" s="194"/>
+      <c r="P158" s="194"/>
+      <c r="Q158" s="194"/>
+      <c r="R158" s="194"/>
+      <c r="S158" s="194"/>
+      <c r="T158" s="194"/>
+      <c r="U158" s="194"/>
+      <c r="V158" s="194"/>
+      <c r="W158" s="194"/>
+      <c r="X158" s="194"/>
+      <c r="Y158" s="194"/>
+      <c r="Z158" s="194"/>
+      <c r="AA158" s="194"/>
+      <c r="AB158" s="194"/>
+      <c r="AC158" s="194"/>
+      <c r="AD158" s="194"/>
+      <c r="AE158" s="194"/>
+      <c r="AF158" s="194"/>
+      <c r="AG158" s="194"/>
+      <c r="AH158" s="194"/>
+      <c r="AI158" s="194"/>
+      <c r="AJ158" s="194"/>
+      <c r="AK158" s="194"/>
+      <c r="AL158" s="194"/>
+      <c r="AM158" s="194"/>
+      <c r="AN158" s="194"/>
+      <c r="AO158" s="194"/>
+      <c r="AP158" s="194"/>
+      <c r="AQ158" s="194"/>
+      <c r="AR158" s="194"/>
+      <c r="AS158" s="194"/>
+      <c r="AT158" s="194"/>
+      <c r="AU158" s="194"/>
       <c r="AV158" s="19"/>
       <c r="AW158" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="D159" s="171"/>
-      <c r="E159" s="171"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
-      <c r="Q159" s="24"/>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
-      <c r="T159" s="24"/>
-      <c r="U159" s="24"/>
-      <c r="V159" s="24"/>
-      <c r="W159" s="24"/>
-      <c r="X159" s="24"/>
-      <c r="Y159" s="24"/>
-      <c r="Z159" s="24"/>
-      <c r="AA159" s="24"/>
-      <c r="AB159" s="24"/>
-      <c r="AC159" s="24"/>
-      <c r="AD159" s="24"/>
-      <c r="AF159" s="24"/>
-      <c r="AG159" s="24"/>
-      <c r="AH159" s="24"/>
-      <c r="AI159" s="24"/>
-      <c r="AJ159" s="24"/>
-      <c r="AK159" s="24"/>
-      <c r="AL159" s="24"/>
-      <c r="AM159" s="24"/>
-      <c r="AN159" s="24"/>
-      <c r="AO159" s="24"/>
-      <c r="AP159" s="24"/>
-      <c r="AQ159" s="24"/>
-      <c r="AR159" s="24"/>
-      <c r="AS159" s="24"/>
-      <c r="AT159" s="24"/>
-      <c r="AU159" s="24"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="F159" s="195"/>
+      <c r="G159" s="195"/>
+      <c r="H159" s="195"/>
+      <c r="I159" s="195"/>
+      <c r="J159" s="195"/>
+      <c r="K159" s="195"/>
+      <c r="L159" s="196" t="s">
+        <v>114</v>
+      </c>
+      <c r="M159" s="196"/>
+      <c r="N159" s="196"/>
+      <c r="O159" s="196"/>
+      <c r="P159" s="196"/>
+      <c r="Q159" s="196"/>
+      <c r="R159" s="196"/>
+      <c r="S159" s="196"/>
+      <c r="T159" s="196"/>
+      <c r="U159" s="196"/>
+      <c r="V159" s="196"/>
+      <c r="W159" s="196"/>
+      <c r="X159" s="196"/>
+      <c r="Y159" s="196"/>
+      <c r="Z159" s="196"/>
+      <c r="AA159" s="196"/>
+      <c r="AB159" s="196"/>
+      <c r="AC159" s="196"/>
+      <c r="AD159" s="196"/>
+      <c r="AE159" s="196"/>
+      <c r="AF159" s="196"/>
+      <c r="AG159" s="196"/>
+      <c r="AH159" s="196"/>
+      <c r="AI159" s="196"/>
+      <c r="AJ159" s="196"/>
+      <c r="AK159" s="196"/>
+      <c r="AL159" s="196"/>
+      <c r="AM159" s="196"/>
+      <c r="AN159" s="196"/>
+      <c r="AO159" s="196"/>
+      <c r="AP159" s="196"/>
+      <c r="AQ159" s="196"/>
+      <c r="AR159" s="196"/>
+      <c r="AS159" s="196"/>
+      <c r="AT159" s="196"/>
+      <c r="AU159" s="196"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="D160" s="171"/>
-      <c r="E160" s="207"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="24"/>
-      <c r="M160" s="24"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="24"/>
-      <c r="P160" s="24"/>
-      <c r="Q160" s="24"/>
-      <c r="R160" s="24"/>
-      <c r="S160" s="24"/>
-      <c r="T160" s="24"/>
-      <c r="U160" s="24"/>
-      <c r="V160" s="24"/>
-      <c r="W160" s="24"/>
-      <c r="X160" s="24"/>
-      <c r="Y160" s="24"/>
-      <c r="Z160" s="24"/>
-      <c r="AA160" s="24"/>
-      <c r="AB160" s="24"/>
-      <c r="AC160" s="24"/>
-      <c r="AD160" s="24"/>
-      <c r="AF160" s="24"/>
-      <c r="AG160" s="24"/>
-      <c r="AH160" s="24"/>
-      <c r="AI160" s="24"/>
-      <c r="AJ160" s="24"/>
-      <c r="AK160" s="24"/>
-      <c r="AL160" s="24"/>
-      <c r="AM160" s="24"/>
-      <c r="AN160" s="24"/>
-      <c r="AO160" s="24"/>
-      <c r="AP160" s="24"/>
-      <c r="AQ160" s="24"/>
-      <c r="AR160" s="24"/>
-      <c r="AS160" s="24"/>
-      <c r="AT160" s="24"/>
-      <c r="AU160" s="24"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="195" t="s">
+        <v>53</v>
+      </c>
+      <c r="F160" s="195"/>
+      <c r="G160" s="195"/>
+      <c r="H160" s="195"/>
+      <c r="I160" s="195"/>
+      <c r="J160" s="195"/>
+      <c r="K160" s="195"/>
+      <c r="L160" s="197"/>
+      <c r="M160" s="165"/>
+      <c r="N160" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="O160" s="165"/>
+      <c r="P160" s="165"/>
+      <c r="Q160" s="168"/>
+      <c r="R160" s="168"/>
+      <c r="S160" s="168"/>
+      <c r="T160" s="168"/>
+      <c r="U160" s="168"/>
+      <c r="V160" s="168"/>
+      <c r="W160" s="168"/>
+      <c r="X160" s="168"/>
+      <c r="Y160" s="198" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z160" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA160" s="168"/>
+      <c r="AB160" s="168"/>
+      <c r="AC160" s="168"/>
+      <c r="AD160" s="168"/>
+      <c r="AE160" s="168"/>
+      <c r="AF160" s="168"/>
+      <c r="AG160" s="168"/>
+      <c r="AH160" s="168"/>
+      <c r="AI160" s="168"/>
+      <c r="AJ160" s="168"/>
+      <c r="AK160" s="168"/>
+      <c r="AL160" s="168"/>
+      <c r="AM160" s="168"/>
+      <c r="AN160" s="168"/>
+      <c r="AO160" s="168"/>
+      <c r="AP160" s="168"/>
+      <c r="AQ160" s="168"/>
+      <c r="AR160" s="168"/>
+      <c r="AS160" s="168"/>
+      <c r="AT160" s="168"/>
+      <c r="AU160" s="169"/>
       <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
-      <c r="D161" s="171"/>
-      <c r="E161" s="218" t="s">
-        <v>120</v>
-      </c>
-      <c r="F161" s="219"/>
-      <c r="G161" s="219"/>
-      <c r="H161" s="220"/>
-      <c r="I161" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="J161" s="210"/>
-      <c r="K161" s="210"/>
-      <c r="L161" s="210"/>
-      <c r="M161" s="210"/>
-      <c r="N161" s="210"/>
-      <c r="O161" s="210"/>
-      <c r="P161" s="210"/>
-      <c r="Q161" s="210"/>
-      <c r="R161" s="210"/>
-      <c r="S161" s="210"/>
-      <c r="T161" s="210"/>
-      <c r="U161" s="210"/>
-      <c r="V161" s="210"/>
-      <c r="W161" s="210"/>
-      <c r="X161" s="210"/>
-      <c r="Y161" s="210"/>
-      <c r="Z161" s="210"/>
-      <c r="AA161" s="210"/>
-      <c r="AB161" s="210"/>
-      <c r="AC161" s="210"/>
-      <c r="AD161" s="210"/>
-      <c r="AE161" s="210"/>
-      <c r="AF161" s="210"/>
-      <c r="AG161" s="210"/>
-      <c r="AH161" s="210"/>
-      <c r="AI161" s="210"/>
-      <c r="AJ161" s="210" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK161" s="210"/>
-      <c r="AL161" s="210"/>
-      <c r="AM161" s="210"/>
-      <c r="AN161" s="210"/>
-      <c r="AO161" s="210"/>
-      <c r="AP161" s="210"/>
-      <c r="AQ161" s="210"/>
-      <c r="AR161" s="210"/>
-      <c r="AS161" s="210"/>
-      <c r="AT161" s="210"/>
-      <c r="AU161" s="24"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="195"/>
+      <c r="F161" s="195"/>
+      <c r="G161" s="195"/>
+      <c r="H161" s="195"/>
+      <c r="I161" s="195"/>
+      <c r="J161" s="195"/>
+      <c r="K161" s="195"/>
+      <c r="L161" s="199"/>
+      <c r="M161" s="186"/>
+      <c r="N161" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="O161" s="186"/>
+      <c r="P161" s="186"/>
+      <c r="Q161" s="200"/>
+      <c r="R161" s="200"/>
+      <c r="S161" s="200"/>
+      <c r="T161" s="200"/>
+      <c r="U161" s="200"/>
+      <c r="V161" s="200"/>
+      <c r="W161" s="200"/>
+      <c r="X161" s="200"/>
+      <c r="Y161" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z161" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA161" s="200"/>
+      <c r="AB161" s="200"/>
+      <c r="AC161" s="200"/>
+      <c r="AD161" s="200"/>
+      <c r="AE161" s="200"/>
+      <c r="AF161" s="200"/>
+      <c r="AG161" s="200"/>
+      <c r="AH161" s="200"/>
+      <c r="AI161" s="200"/>
+      <c r="AJ161" s="200"/>
+      <c r="AK161" s="200"/>
+      <c r="AL161" s="200"/>
+      <c r="AM161" s="200"/>
+      <c r="AN161" s="200"/>
+      <c r="AO161" s="200"/>
+      <c r="AP161" s="200"/>
+      <c r="AQ161" s="200"/>
+      <c r="AR161" s="200"/>
+      <c r="AS161" s="200"/>
+      <c r="AT161" s="200"/>
+      <c r="AU161" s="202"/>
       <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
-      <c r="D162" s="171"/>
-      <c r="E162" s="221" t="s">
-        <v>122</v>
-      </c>
-      <c r="F162" s="221"/>
-      <c r="G162" s="221"/>
-      <c r="H162" s="221"/>
-      <c r="I162" s="222" t="s">
-        <v>123</v>
-      </c>
-      <c r="J162" s="223"/>
-      <c r="K162" s="223"/>
-      <c r="L162" s="223"/>
-      <c r="M162" s="223"/>
-      <c r="N162" s="223"/>
-      <c r="O162" s="223"/>
-      <c r="P162" s="223"/>
-      <c r="Q162" s="223"/>
-      <c r="R162" s="223"/>
-      <c r="S162" s="223"/>
-      <c r="T162" s="223"/>
-      <c r="U162" s="223"/>
-      <c r="V162" s="223"/>
-      <c r="W162" s="223"/>
-      <c r="X162" s="223"/>
-      <c r="Y162" s="223"/>
-      <c r="Z162" s="223"/>
-      <c r="AA162" s="223"/>
-      <c r="AB162" s="223"/>
-      <c r="AC162" s="223"/>
-      <c r="AD162" s="223"/>
-      <c r="AE162" s="224"/>
-      <c r="AF162" s="223"/>
-      <c r="AG162" s="223"/>
-      <c r="AH162" s="223"/>
-      <c r="AI162" s="225"/>
-      <c r="AJ162" s="183" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK162" s="223"/>
-      <c r="AL162" s="223"/>
-      <c r="AM162" s="223"/>
-      <c r="AN162" s="223"/>
-      <c r="AO162" s="223"/>
-      <c r="AP162" s="223"/>
-      <c r="AQ162" s="223"/>
-      <c r="AR162" s="223"/>
-      <c r="AS162" s="223"/>
-      <c r="AT162" s="225"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="192"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="24"/>
+      <c r="AA162" s="24"/>
+      <c r="AB162" s="24"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="24"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="24"/>
+      <c r="AH162" s="24"/>
+      <c r="AI162" s="24"/>
+      <c r="AJ162" s="24"/>
+      <c r="AK162" s="24"/>
+      <c r="AL162" s="24"/>
+      <c r="AM162" s="24"/>
+      <c r="AN162" s="24"/>
+      <c r="AO162" s="24"/>
+      <c r="AP162" s="24"/>
+      <c r="AQ162" s="24"/>
+      <c r="AR162" s="24"/>
+      <c r="AS162" s="24"/>
+      <c r="AT162" s="24"/>
       <c r="AU162" s="24"/>
       <c r="AV162" s="19"/>
       <c r="AW162" s="20"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
-      <c r="D163" s="171"/>
-      <c r="E163" s="226" t="s">
-        <v>125</v>
-      </c>
-      <c r="F163" s="226"/>
-      <c r="G163" s="226"/>
-      <c r="H163" s="226"/>
-      <c r="I163" s="227" t="s">
-        <v>126</v>
-      </c>
-      <c r="J163" s="228"/>
-      <c r="K163" s="228"/>
-      <c r="L163" s="228"/>
-      <c r="M163" s="228"/>
-      <c r="N163" s="228"/>
-      <c r="O163" s="228"/>
-      <c r="P163" s="228"/>
-      <c r="Q163" s="228"/>
-      <c r="R163" s="228"/>
-      <c r="S163" s="228"/>
-      <c r="T163" s="228"/>
-      <c r="U163" s="228"/>
-      <c r="V163" s="228"/>
-      <c r="W163" s="228"/>
-      <c r="X163" s="228"/>
-      <c r="Y163" s="228"/>
-      <c r="Z163" s="228"/>
-      <c r="AA163" s="228"/>
-      <c r="AB163" s="228"/>
-      <c r="AC163" s="228"/>
-      <c r="AD163" s="228"/>
-      <c r="AE163" s="229"/>
-      <c r="AF163" s="228"/>
-      <c r="AG163" s="228"/>
-      <c r="AH163" s="228"/>
-      <c r="AI163" s="230"/>
-      <c r="AJ163" s="231" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK163" s="228"/>
-      <c r="AL163" s="228"/>
-      <c r="AM163" s="228"/>
-      <c r="AN163" s="228"/>
-      <c r="AO163" s="228"/>
-      <c r="AP163" s="228"/>
-      <c r="AQ163" s="228"/>
-      <c r="AR163" s="228"/>
-      <c r="AS163" s="228"/>
-      <c r="AT163" s="230"/>
+      <c r="D163" s="158"/>
+      <c r="E163" s="203" t="s">
+        <v>119</v>
+      </c>
+      <c r="F163" s="204"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="205"/>
+      <c r="I163" s="195" t="s">
+        <v>120</v>
+      </c>
+      <c r="J163" s="195"/>
+      <c r="K163" s="195"/>
+      <c r="L163" s="195"/>
+      <c r="M163" s="195"/>
+      <c r="N163" s="195"/>
+      <c r="O163" s="195"/>
+      <c r="P163" s="195"/>
+      <c r="Q163" s="195"/>
+      <c r="R163" s="195"/>
+      <c r="S163" s="195"/>
+      <c r="T163" s="195"/>
+      <c r="U163" s="195"/>
+      <c r="V163" s="195"/>
+      <c r="W163" s="195"/>
+      <c r="X163" s="195"/>
+      <c r="Y163" s="195"/>
+      <c r="Z163" s="195"/>
+      <c r="AA163" s="195"/>
+      <c r="AB163" s="195"/>
+      <c r="AC163" s="195"/>
+      <c r="AD163" s="195"/>
+      <c r="AE163" s="195"/>
+      <c r="AF163" s="195"/>
+      <c r="AG163" s="195"/>
+      <c r="AH163" s="195"/>
+      <c r="AI163" s="195"/>
+      <c r="AJ163" s="195" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK163" s="195"/>
+      <c r="AL163" s="195"/>
+      <c r="AM163" s="195"/>
+      <c r="AN163" s="195"/>
+      <c r="AO163" s="195"/>
+      <c r="AP163" s="195"/>
+      <c r="AQ163" s="195"/>
+      <c r="AR163" s="195"/>
+      <c r="AS163" s="195"/>
+      <c r="AT163" s="195"/>
       <c r="AU163" s="24"/>
       <c r="AV163" s="19"/>
       <c r="AW163" s="20"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="24"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="24"/>
-      <c r="P164" s="24"/>
-      <c r="Q164" s="24"/>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="24"/>
-      <c r="U164" s="24"/>
-      <c r="V164" s="24"/>
-      <c r="W164" s="24"/>
-      <c r="X164" s="24"/>
-      <c r="Y164" s="24"/>
-      <c r="Z164" s="24"/>
-      <c r="AA164" s="24"/>
-      <c r="AB164" s="24"/>
-      <c r="AC164" s="24"/>
-      <c r="AD164" s="24"/>
-      <c r="AF164" s="24"/>
-      <c r="AG164" s="24"/>
-      <c r="AH164" s="24"/>
-      <c r="AI164" s="24"/>
-      <c r="AJ164" s="232"/>
-      <c r="AK164" s="24"/>
-      <c r="AL164" s="24"/>
-      <c r="AM164" s="24"/>
-      <c r="AN164" s="24"/>
-      <c r="AO164" s="24"/>
-      <c r="AP164" s="24"/>
-      <c r="AQ164" s="24"/>
-      <c r="AR164" s="24"/>
-      <c r="AS164" s="24"/>
-      <c r="AT164" s="24"/>
+      <c r="D164" s="158"/>
+      <c r="E164" s="206" t="s">
+        <v>121</v>
+      </c>
+      <c r="F164" s="206"/>
+      <c r="G164" s="206"/>
+      <c r="H164" s="206"/>
+      <c r="I164" s="207" t="s">
+        <v>122</v>
+      </c>
+      <c r="J164" s="208"/>
+      <c r="K164" s="208"/>
+      <c r="L164" s="208"/>
+      <c r="M164" s="208"/>
+      <c r="N164" s="208"/>
+      <c r="O164" s="208"/>
+      <c r="P164" s="208"/>
+      <c r="Q164" s="208"/>
+      <c r="R164" s="208"/>
+      <c r="S164" s="208"/>
+      <c r="T164" s="208"/>
+      <c r="U164" s="208"/>
+      <c r="V164" s="208"/>
+      <c r="W164" s="208"/>
+      <c r="X164" s="208"/>
+      <c r="Y164" s="208"/>
+      <c r="Z164" s="208"/>
+      <c r="AA164" s="208"/>
+      <c r="AB164" s="208"/>
+      <c r="AC164" s="208"/>
+      <c r="AD164" s="208"/>
+      <c r="AE164" s="209"/>
+      <c r="AF164" s="208"/>
+      <c r="AG164" s="208"/>
+      <c r="AH164" s="208"/>
+      <c r="AI164" s="210"/>
+      <c r="AJ164" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK164" s="208"/>
+      <c r="AL164" s="208"/>
+      <c r="AM164" s="208"/>
+      <c r="AN164" s="208"/>
+      <c r="AO164" s="208"/>
+      <c r="AP164" s="208"/>
+      <c r="AQ164" s="208"/>
+      <c r="AR164" s="208"/>
+      <c r="AS164" s="208"/>
+      <c r="AT164" s="210"/>
       <c r="AU164" s="24"/>
       <c r="AV164" s="19"/>
       <c r="AW164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="24"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
-      <c r="T165" s="24"/>
-      <c r="U165" s="24"/>
-      <c r="V165" s="24"/>
-      <c r="W165" s="24"/>
-      <c r="X165" s="24"/>
-      <c r="Y165" s="24"/>
-      <c r="Z165" s="24"/>
-      <c r="AA165" s="24"/>
-      <c r="AB165" s="24"/>
-      <c r="AC165" s="24"/>
-      <c r="AD165" s="24"/>
-      <c r="AF165" s="24"/>
-      <c r="AG165" s="24"/>
-      <c r="AH165" s="24"/>
-      <c r="AI165" s="24"/>
-      <c r="AJ165" s="232"/>
-      <c r="AK165" s="24"/>
-      <c r="AL165" s="24"/>
-      <c r="AM165" s="24"/>
-      <c r="AN165" s="24"/>
-      <c r="AO165" s="24"/>
-      <c r="AP165" s="24"/>
-      <c r="AQ165" s="24"/>
-      <c r="AR165" s="24"/>
-      <c r="AS165" s="24"/>
-      <c r="AT165" s="24"/>
+      <c r="D165" s="158"/>
+      <c r="E165" s="211" t="s">
+        <v>124</v>
+      </c>
+      <c r="F165" s="211"/>
+      <c r="G165" s="211"/>
+      <c r="H165" s="211"/>
+      <c r="I165" s="212" t="s">
+        <v>125</v>
+      </c>
+      <c r="J165" s="213"/>
+      <c r="K165" s="213"/>
+      <c r="L165" s="213"/>
+      <c r="M165" s="213"/>
+      <c r="N165" s="213"/>
+      <c r="O165" s="213"/>
+      <c r="P165" s="213"/>
+      <c r="Q165" s="213"/>
+      <c r="R165" s="213"/>
+      <c r="S165" s="213"/>
+      <c r="T165" s="213"/>
+      <c r="U165" s="213"/>
+      <c r="V165" s="213"/>
+      <c r="W165" s="213"/>
+      <c r="X165" s="213"/>
+      <c r="Y165" s="213"/>
+      <c r="Z165" s="213"/>
+      <c r="AA165" s="213"/>
+      <c r="AB165" s="213"/>
+      <c r="AC165" s="213"/>
+      <c r="AD165" s="213"/>
+      <c r="AE165" s="214"/>
+      <c r="AF165" s="213"/>
+      <c r="AG165" s="213"/>
+      <c r="AH165" s="213"/>
+      <c r="AI165" s="215"/>
+      <c r="AJ165" s="216" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK165" s="213"/>
+      <c r="AL165" s="213"/>
+      <c r="AM165" s="213"/>
+      <c r="AN165" s="213"/>
+      <c r="AO165" s="213"/>
+      <c r="AP165" s="213"/>
+      <c r="AQ165" s="213"/>
+      <c r="AR165" s="213"/>
+      <c r="AS165" s="213"/>
+      <c r="AT165" s="215"/>
       <c r="AU165" s="24"/>
       <c r="AV165" s="19"/>
       <c r="AW165" s="20"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
+      <c r="D166" s="158"/>
+      <c r="E166" s="192"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
       <c r="N166" s="24"/>
@@ -16914,7 +17023,7 @@
       <c r="AG166" s="24"/>
       <c r="AH166" s="24"/>
       <c r="AI166" s="24"/>
-      <c r="AJ166" s="232"/>
+      <c r="AJ166" s="24"/>
       <c r="AK166" s="24"/>
       <c r="AL166" s="24"/>
       <c r="AM166" s="24"/>
@@ -16931,231 +17040,250 @@
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="24"/>
-      <c r="P167" s="24"/>
-      <c r="Q167" s="24"/>
-      <c r="R167" s="24"/>
-      <c r="S167" s="24"/>
-      <c r="T167" s="24"/>
-      <c r="U167" s="24"/>
-      <c r="V167" s="24"/>
-      <c r="W167" s="24"/>
-      <c r="X167" s="24"/>
-      <c r="Y167" s="24"/>
-      <c r="Z167" s="24"/>
-      <c r="AA167" s="24"/>
-      <c r="AB167" s="24"/>
-      <c r="AC167" s="24"/>
-      <c r="AD167" s="24"/>
-      <c r="AF167" s="24"/>
-      <c r="AG167" s="24"/>
-      <c r="AH167" s="24"/>
-      <c r="AI167" s="24"/>
-      <c r="AJ167" s="232"/>
-      <c r="AK167" s="24"/>
-      <c r="AL167" s="24"/>
-      <c r="AM167" s="24"/>
-      <c r="AN167" s="24"/>
-      <c r="AO167" s="24"/>
-      <c r="AP167" s="24"/>
-      <c r="AQ167" s="24"/>
-      <c r="AR167" s="24"/>
-      <c r="AS167" s="24"/>
-      <c r="AT167" s="24"/>
-      <c r="AU167" s="24"/>
+      <c r="D167" s="158"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
+      <c r="M167" s="0"/>
+      <c r="N167" s="0"/>
+      <c r="O167" s="0"/>
+      <c r="P167" s="0"/>
+      <c r="Q167" s="0"/>
+      <c r="R167" s="0"/>
+      <c r="S167" s="0"/>
+      <c r="T167" s="0"/>
+      <c r="U167" s="0"/>
+      <c r="V167" s="0"/>
+      <c r="W167" s="0"/>
+      <c r="X167" s="0"/>
+      <c r="Y167" s="0"/>
+      <c r="Z167" s="0"/>
+      <c r="AA167" s="0"/>
+      <c r="AB167" s="0"/>
+      <c r="AC167" s="0"/>
+      <c r="AD167" s="0"/>
+      <c r="AE167" s="0"/>
+      <c r="AF167" s="0"/>
+      <c r="AG167" s="0"/>
+      <c r="AH167" s="0"/>
+      <c r="AI167" s="0"/>
+      <c r="AJ167" s="0"/>
+      <c r="AK167" s="0"/>
+      <c r="AL167" s="0"/>
+      <c r="AM167" s="0"/>
+      <c r="AN167" s="0"/>
+      <c r="AO167" s="0"/>
+      <c r="AP167" s="0"/>
+      <c r="AQ167" s="0"/>
+      <c r="AR167" s="0"/>
+      <c r="AS167" s="0"/>
+      <c r="AT167" s="0"/>
+      <c r="AU167" s="0"/>
       <c r="AV167" s="19"/>
       <c r="AW167" s="20"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
-      <c r="D168" s="171" t="s">
-        <v>128</v>
-      </c>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="24"/>
-      <c r="P168" s="24"/>
-      <c r="Q168" s="24"/>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
-      <c r="T168" s="24"/>
-      <c r="U168" s="24"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
-      <c r="X168" s="24"/>
-      <c r="Y168" s="24"/>
-      <c r="Z168" s="24"/>
-      <c r="AA168" s="24"/>
-      <c r="AB168" s="24"/>
-      <c r="AC168" s="24"/>
-      <c r="AD168" s="24"/>
-      <c r="AF168" s="24"/>
-      <c r="AG168" s="24"/>
-      <c r="AH168" s="24"/>
-      <c r="AI168" s="24"/>
-      <c r="AJ168" s="232"/>
-      <c r="AK168" s="24"/>
-      <c r="AL168" s="24"/>
-      <c r="AM168" s="24"/>
-      <c r="AN168" s="24"/>
-      <c r="AO168" s="24"/>
-      <c r="AP168" s="24"/>
-      <c r="AQ168" s="24"/>
-      <c r="AR168" s="24"/>
-      <c r="AS168" s="24"/>
-      <c r="AT168" s="24"/>
-      <c r="AU168" s="24"/>
+      <c r="C168" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D168" s="158"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
+      <c r="M168" s="0"/>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+      <c r="R168" s="0"/>
+      <c r="S168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="0"/>
+      <c r="V168" s="0"/>
+      <c r="W168" s="0"/>
+      <c r="X168" s="0"/>
+      <c r="Y168" s="0"/>
+      <c r="Z168" s="0"/>
+      <c r="AA168" s="0"/>
+      <c r="AB168" s="0"/>
+      <c r="AC168" s="0"/>
+      <c r="AD168" s="0"/>
+      <c r="AE168" s="0"/>
+      <c r="AF168" s="0"/>
+      <c r="AG168" s="0"/>
+      <c r="AH168" s="0"/>
+      <c r="AI168" s="0"/>
+      <c r="AJ168" s="0"/>
+      <c r="AK168" s="0"/>
+      <c r="AL168" s="0"/>
+      <c r="AM168" s="0"/>
+      <c r="AN168" s="0"/>
+      <c r="AO168" s="0"/>
+      <c r="AP168" s="0"/>
+      <c r="AQ168" s="0"/>
+      <c r="AR168" s="0"/>
+      <c r="AS168" s="0"/>
+      <c r="AT168" s="0"/>
+      <c r="AU168" s="0"/>
       <c r="AV168" s="19"/>
       <c r="AW168" s="20"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
-      <c r="D169" s="171"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="24"/>
-      <c r="AJ169" s="232"/>
-      <c r="AK169" s="24"/>
-      <c r="AL169" s="24"/>
-      <c r="AM169" s="24"/>
-      <c r="AN169" s="24"/>
-      <c r="AO169" s="24"/>
-      <c r="AP169" s="24"/>
-      <c r="AQ169" s="24"/>
-      <c r="AR169" s="24"/>
-      <c r="AS169" s="24"/>
-      <c r="AT169" s="24"/>
-      <c r="AU169" s="24"/>
+      <c r="D169" s="158"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="0"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="0"/>
+      <c r="V169" s="0"/>
+      <c r="W169" s="0"/>
+      <c r="X169" s="0"/>
+      <c r="Y169" s="0"/>
+      <c r="Z169" s="0"/>
+      <c r="AA169" s="0"/>
+      <c r="AB169" s="0"/>
+      <c r="AC169" s="0"/>
+      <c r="AD169" s="0"/>
+      <c r="AE169" s="0"/>
+      <c r="AF169" s="0"/>
+      <c r="AG169" s="0"/>
+      <c r="AH169" s="0"/>
+      <c r="AI169" s="0"/>
+      <c r="AJ169" s="0"/>
+      <c r="AK169" s="0"/>
+      <c r="AL169" s="0"/>
+      <c r="AM169" s="0"/>
+      <c r="AN169" s="0"/>
+      <c r="AO169" s="0"/>
+      <c r="AP169" s="0"/>
+      <c r="AQ169" s="0"/>
+      <c r="AR169" s="0"/>
+      <c r="AS169" s="0"/>
+      <c r="AT169" s="0"/>
+      <c r="AU169" s="0"/>
       <c r="AV169" s="19"/>
       <c r="AW169" s="20"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="25"/>
-      <c r="B170" s="233"/>
+      <c r="B170" s="217"/>
       <c r="C170" s="26"/>
-      <c r="D170" s="234"/>
+      <c r="D170" s="218"/>
       <c r="E170" s="24"/>
-      <c r="F170" s="235"/>
-      <c r="G170" s="235"/>
-      <c r="H170" s="235"/>
-      <c r="I170" s="235"/>
-      <c r="J170" s="235"/>
-      <c r="K170" s="235"/>
-      <c r="L170" s="235"/>
-      <c r="M170" s="235"/>
-      <c r="N170" s="235"/>
-      <c r="O170" s="235"/>
-      <c r="P170" s="235"/>
-      <c r="Q170" s="235"/>
-      <c r="R170" s="235"/>
-      <c r="S170" s="235"/>
-      <c r="T170" s="235"/>
-      <c r="U170" s="235"/>
-      <c r="V170" s="235"/>
-      <c r="W170" s="235"/>
-      <c r="X170" s="235"/>
-      <c r="Y170" s="235"/>
-      <c r="Z170" s="235"/>
-      <c r="AA170" s="235"/>
-      <c r="AB170" s="235"/>
-      <c r="AC170" s="235"/>
-      <c r="AD170" s="235"/>
-      <c r="AE170" s="236"/>
-      <c r="AF170" s="235"/>
-      <c r="AG170" s="235"/>
-      <c r="AH170" s="235"/>
-      <c r="AI170" s="235"/>
-      <c r="AJ170" s="237"/>
-      <c r="AK170" s="235"/>
-      <c r="AL170" s="235"/>
-      <c r="AM170" s="235"/>
-      <c r="AN170" s="235"/>
-      <c r="AO170" s="235"/>
-      <c r="AP170" s="235"/>
-      <c r="AQ170" s="235"/>
-      <c r="AR170" s="235"/>
-      <c r="AS170" s="235"/>
-      <c r="AT170" s="235"/>
-      <c r="AU170" s="235"/>
+      <c r="F170" s="219"/>
+      <c r="G170" s="219"/>
+      <c r="H170" s="219"/>
+      <c r="I170" s="219"/>
+      <c r="J170" s="219"/>
+      <c r="K170" s="219"/>
+      <c r="L170" s="219"/>
+      <c r="M170" s="219"/>
+      <c r="N170" s="219"/>
+      <c r="O170" s="219"/>
+      <c r="P170" s="219"/>
+      <c r="Q170" s="219"/>
+      <c r="R170" s="219"/>
+      <c r="S170" s="219"/>
+      <c r="T170" s="219"/>
+      <c r="U170" s="219"/>
+      <c r="V170" s="219"/>
+      <c r="W170" s="219"/>
+      <c r="X170" s="219"/>
+      <c r="Y170" s="219"/>
+      <c r="Z170" s="219"/>
+      <c r="AA170" s="219"/>
+      <c r="AB170" s="219"/>
+      <c r="AC170" s="219"/>
+      <c r="AD170" s="219"/>
+      <c r="AE170" s="220"/>
+      <c r="AF170" s="219"/>
+      <c r="AG170" s="219"/>
+      <c r="AH170" s="219"/>
+      <c r="AI170" s="219"/>
+      <c r="AJ170" s="221"/>
+      <c r="AK170" s="219"/>
+      <c r="AL170" s="219"/>
+      <c r="AM170" s="219"/>
+      <c r="AN170" s="219"/>
+      <c r="AO170" s="219"/>
+      <c r="AP170" s="219"/>
+      <c r="AQ170" s="219"/>
+      <c r="AR170" s="219"/>
+      <c r="AS170" s="219"/>
+      <c r="AT170" s="219"/>
+      <c r="AU170" s="219"/>
       <c r="AV170" s="26"/>
       <c r="AW170" s="27"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D171" s="238"/>
-      <c r="E171" s="239"/>
-      <c r="F171" s="240"/>
-      <c r="G171" s="240"/>
-      <c r="H171" s="240"/>
-      <c r="I171" s="240"/>
-      <c r="J171" s="240"/>
-      <c r="K171" s="240"/>
-      <c r="L171" s="240"/>
-      <c r="M171" s="240"/>
-      <c r="N171" s="240"/>
-      <c r="O171" s="240"/>
-      <c r="P171" s="240"/>
-      <c r="Q171" s="240"/>
-      <c r="R171" s="240"/>
-      <c r="S171" s="240"/>
-      <c r="T171" s="240"/>
-      <c r="U171" s="240"/>
-      <c r="V171" s="240"/>
-      <c r="W171" s="240"/>
-      <c r="X171" s="240"/>
-      <c r="Y171" s="240"/>
-      <c r="Z171" s="240"/>
-      <c r="AA171" s="240"/>
-      <c r="AB171" s="240"/>
-      <c r="AC171" s="240"/>
-      <c r="AD171" s="240"/>
-      <c r="AE171" s="240"/>
-      <c r="AF171" s="240"/>
-      <c r="AG171" s="240"/>
-      <c r="AH171" s="240"/>
-      <c r="AI171" s="240"/>
-      <c r="AJ171" s="240"/>
-      <c r="AK171" s="240"/>
-      <c r="AL171" s="240"/>
-      <c r="AM171" s="240"/>
-      <c r="AN171" s="240"/>
-      <c r="AO171" s="240"/>
-      <c r="AP171" s="240"/>
-      <c r="AQ171" s="240"/>
-      <c r="AR171" s="240"/>
-      <c r="AS171" s="240"/>
-      <c r="AT171" s="240"/>
-      <c r="AU171" s="240"/>
+      <c r="D171" s="222"/>
+      <c r="E171" s="223"/>
+      <c r="F171" s="224"/>
+      <c r="G171" s="224"/>
+      <c r="H171" s="224"/>
+      <c r="I171" s="224"/>
+      <c r="J171" s="224"/>
+      <c r="K171" s="224"/>
+      <c r="L171" s="224"/>
+      <c r="M171" s="224"/>
+      <c r="N171" s="224"/>
+      <c r="O171" s="224"/>
+      <c r="P171" s="224"/>
+      <c r="Q171" s="224"/>
+      <c r="R171" s="224"/>
+      <c r="S171" s="224"/>
+      <c r="T171" s="224"/>
+      <c r="U171" s="224"/>
+      <c r="V171" s="224"/>
+      <c r="W171" s="224"/>
+      <c r="X171" s="224"/>
+      <c r="Y171" s="224"/>
+      <c r="Z171" s="224"/>
+      <c r="AA171" s="224"/>
+      <c r="AB171" s="224"/>
+      <c r="AC171" s="224"/>
+      <c r="AD171" s="224"/>
+      <c r="AE171" s="224"/>
+      <c r="AF171" s="224"/>
+      <c r="AG171" s="224"/>
+      <c r="AH171" s="224"/>
+      <c r="AI171" s="224"/>
+      <c r="AJ171" s="224"/>
+      <c r="AK171" s="224"/>
+      <c r="AL171" s="224"/>
+      <c r="AM171" s="224"/>
+      <c r="AN171" s="224"/>
+      <c r="AO171" s="224"/>
+      <c r="AP171" s="224"/>
+      <c r="AQ171" s="224"/>
+      <c r="AR171" s="224"/>
+      <c r="AS171" s="224"/>
+      <c r="AT171" s="224"/>
+      <c r="AU171" s="224"/>
       <c r="AX171" s="1"/>
     </row>
     <row r="172" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17180,7 +17308,7 @@
     </row>
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="113">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -17225,9 +17353,12 @@
     <mergeCell ref="AD48:AV48"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T50:U50"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="N55:W55"/>
-    <mergeCell ref="X55:AV55"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="N53:W53"/>
+    <mergeCell ref="X53:AV53"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="N59:W59"/>
+    <mergeCell ref="X59:AV59"/>
     <mergeCell ref="A81:I83"/>
     <mergeCell ref="J81:O83"/>
     <mergeCell ref="P81:U83"/>
@@ -17262,29 +17393,35 @@
     <mergeCell ref="AA123:AG123"/>
     <mergeCell ref="AH123:AL123"/>
     <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="F130:M130"/>
-    <mergeCell ref="N130:AC130"/>
-    <mergeCell ref="AD130:AK130"/>
-    <mergeCell ref="AL130:AN130"/>
-    <mergeCell ref="AO130:AU130"/>
-    <mergeCell ref="F135:M135"/>
-    <mergeCell ref="N135:AC135"/>
-    <mergeCell ref="AD135:AK135"/>
-    <mergeCell ref="AL135:AN135"/>
-    <mergeCell ref="AO135:AU135"/>
-    <mergeCell ref="F144:M144"/>
-    <mergeCell ref="N144:AI144"/>
-    <mergeCell ref="AJ144:AU144"/>
-    <mergeCell ref="N147:AI147"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="J129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:U129"/>
+    <mergeCell ref="V129:Y129"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AV129"/>
+    <mergeCell ref="T130:U130"/>
+    <mergeCell ref="T131:U131"/>
+    <mergeCell ref="D134:M134"/>
+    <mergeCell ref="N134:W134"/>
+    <mergeCell ref="X134:AV134"/>
+    <mergeCell ref="D140:M140"/>
+    <mergeCell ref="N140:W140"/>
+    <mergeCell ref="X140:AV140"/>
     <mergeCell ref="AY148:BJ148"/>
-    <mergeCell ref="N149:AI149"/>
-    <mergeCell ref="E153:K153"/>
-    <mergeCell ref="L153:AU153"/>
-    <mergeCell ref="E154:K155"/>
-    <mergeCell ref="I161:AI161"/>
-    <mergeCell ref="AJ161:AT161"/>
-    <mergeCell ref="E162:H162"/>
-    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="F150:M150"/>
+    <mergeCell ref="N150:AI150"/>
+    <mergeCell ref="AJ150:AU150"/>
+    <mergeCell ref="N153:AI153"/>
+    <mergeCell ref="N155:AI155"/>
+    <mergeCell ref="E159:K159"/>
+    <mergeCell ref="L159:AU159"/>
+    <mergeCell ref="E160:K161"/>
+    <mergeCell ref="I163:AI163"/>
+    <mergeCell ref="AJ163:AT163"/>
+    <mergeCell ref="E164:H164"/>
+    <mergeCell ref="E165:H165"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/login.xlsx
+++ b/design/chitiet/login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -339,7 +339,7 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user</t>
+    <t xml:space="preserve">Table user</t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
@@ -2183,9 +2183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2199,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2220,9 +2220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2232,7 +2232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3324960" y="24307560"/>
-          <a:ext cx="955080" cy="646200"/>
+          <a:ext cx="954720" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2291,9 +2291,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2302,8 +2302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3791160" y="23725800"/>
-          <a:ext cx="3240" cy="579240"/>
+          <a:off x="3791520" y="23726160"/>
+          <a:ext cx="2880" cy="578880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2348,9 +2348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>122040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2360,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779920" cy="2608560"/>
+          <a:ext cx="2779560" cy="2608200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2404,7 +2404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188720" cy="427320"/>
+          <a:ext cx="1188360" cy="426960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2474,7 +2474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995400" cy="398520"/>
+          <a:ext cx="995040" cy="398160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2648,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914040" cy="398880"/>
+          <a:ext cx="913680" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2704,9 +2704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2720,7 +2720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2758,7 +2758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4817160" cy="417960"/>
+          <a:ext cx="4816800" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2794,9 +2794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>145080</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2810,7 +2810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="255960" y="1092600"/>
-          <a:ext cx="8537040" cy="3872880"/>
+          <a:ext cx="8536680" cy="3872520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2832,8 +2832,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AT81" activeCellId="0" sqref="AT81"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA121" activeCellId="0" sqref="AA121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10729,7 +10729,7 @@
   </sheetPr>
   <dimension ref="A1:BJ1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS146" activeCellId="0" sqref="AS146"/>
     </sheetView>
   </sheetViews>
